--- a/Métriques discriminantes/Tableau métriques/Evolutions métriques/Par journée/2023_2024/Skill Corner/physical_top20.xlsx
+++ b/Métriques discriminantes/Tableau métriques/Evolutions métriques/Par journée/2023_2024/Skill Corner/physical_top20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO39"/>
+  <dimension ref="A1:AN39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,202 +441,197 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_all</t>
+          <t>total_distance_per_Match</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_all</t>
+          <t>total_metersperminute_per_Match</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_all</t>
+          <t>running_distance_per_Match</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_all</t>
+          <t>hsr_distance_per_Match</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_all</t>
+          <t>hsr_count_per_Match</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_all</t>
+          <t>sprint_distance_per_Match</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_all</t>
+          <t>sprint_count_per_Match</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_all</t>
+          <t>hi_distance_per_Match</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_all</t>
+          <t>hi_count_per_Match</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_all</t>
+          <t>medaccel_count_per_Match</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_all</t>
+          <t>highaccel_count_per_Match</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_all</t>
+          <t>meddecel_count_per_Match</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>highdecel_count_full_all</t>
+          <t>highdecel_count_per_Match</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>psv99</t>
+          <t>total_distance_per30tip</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_tip</t>
+          <t>total_metersperminute_per30tip</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_tip</t>
+          <t>running_distance_per30tip</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_tip</t>
+          <t>hsr_distance_per30tip</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_tip</t>
+          <t>hsr_count_per30tip</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_tip</t>
+          <t>sprint_distance_per30tip</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_tip</t>
+          <t>sprint_count_per30tip</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_tip</t>
+          <t>hi_distance_per30tip</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_tip</t>
+          <t>hi_count_per30tip</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_tip</t>
+          <t>medaccel_count_per30tip</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_tip</t>
+          <t>highaccel_count_per30tip</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_tip</t>
+          <t>meddecel_count_per30tip</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_tip</t>
+          <t>highdecel_count_per30tip</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>highdecel_count_full_tip</t>
+          <t>total_distance_per30otip</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_otip</t>
+          <t>total_metersperminute_per30otip</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_otip</t>
+          <t>running_distance_per30otip</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_otip</t>
+          <t>hsr_distance_per30otip</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_otip</t>
+          <t>hsr_count_per30otip</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_otip</t>
+          <t>sprint_distance_per30otip</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_otip</t>
+          <t>sprint_count_per30otip</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_otip</t>
+          <t>hi_distance_per30otip</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_otip</t>
+          <t>hi_count_per30otip</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_otip</t>
+          <t>medaccel_count_per30otip</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_otip</t>
+          <t>highaccel_count_per30otip</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_otip</t>
+          <t>meddecel_count_per30otip</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_otip</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>highdecel_count_full_otip</t>
+          <t>highdecel_count_per30otip</t>
         </is>
       </c>
     </row>
@@ -684,85 +679,82 @@
         <v>168.7060764881076</v>
       </c>
       <c r="O2" t="n">
-        <v>364.6395851069111</v>
+        <v>54185.6445124919</v>
       </c>
       <c r="P2" t="n">
-        <v>34411.45260290839</v>
+        <v>1806.186892487235</v>
       </c>
       <c r="Q2" t="n">
-        <v>1806.186892487235</v>
+        <v>9554.083539115769</v>
       </c>
       <c r="R2" t="n">
-        <v>5696.083697518782</v>
+        <v>4140.059052241086</v>
       </c>
       <c r="S2" t="n">
-        <v>2254.780725174899</v>
+        <v>384.5190720016222</v>
       </c>
       <c r="T2" t="n">
-        <v>218.6721362502635</v>
+        <v>1457.005314776936</v>
       </c>
       <c r="U2" t="n">
-        <v>828.1173709676572</v>
+        <v>75.06467854235787</v>
       </c>
       <c r="V2" t="n">
-        <v>43.69848841617922</v>
+        <v>5597.069700688479</v>
       </c>
       <c r="W2" t="n">
-        <v>3082.898096142556</v>
+        <v>459.579031843203</v>
       </c>
       <c r="X2" t="n">
-        <v>262.3706246664428</v>
+        <v>603.3533100850467</v>
       </c>
       <c r="Y2" t="n">
-        <v>372.911588318426</v>
+        <v>42.46263363712226</v>
       </c>
       <c r="Z2" t="n">
-        <v>24.11434701778478</v>
+        <v>385.457644641885</v>
       </c>
       <c r="AA2" t="n">
-        <v>253.4433011813637</v>
+        <v>63.55382044986793</v>
       </c>
       <c r="AB2" t="n">
-        <v>38.39731375693917</v>
+        <v>56862.25553756263</v>
       </c>
       <c r="AC2" t="n">
-        <v>37241.68852076832</v>
+        <v>1895.404182361121</v>
       </c>
       <c r="AD2" t="n">
-        <v>1895.404182361121</v>
+        <v>11248.31933766433</v>
       </c>
       <c r="AE2" t="n">
-        <v>7135.142640106526</v>
+        <v>4494.551390502693</v>
       </c>
       <c r="AF2" t="n">
-        <v>2848.795647699804</v>
+        <v>414.1294830406233</v>
       </c>
       <c r="AG2" t="n">
-        <v>266.6918170749929</v>
+        <v>1237.935863766141</v>
       </c>
       <c r="AH2" t="n">
-        <v>800.3340225212038</v>
+        <v>62.57850275868218</v>
       </c>
       <c r="AI2" t="n">
-        <v>41.90948865264748</v>
+        <v>5732.484861146028</v>
       </c>
       <c r="AJ2" t="n">
-        <v>3649.129670221008</v>
+        <v>476.71349058747</v>
       </c>
       <c r="AK2" t="n">
-        <v>308.6013057276403</v>
+        <v>672.7577288177947</v>
       </c>
       <c r="AL2" t="n">
-        <v>449.5185463925959</v>
+        <v>34.78641139487974</v>
       </c>
       <c r="AM2" t="n">
-        <v>22.68857550916514</v>
+        <v>468.7582239003153</v>
       </c>
       <c r="AN2" t="n">
-        <v>315.8862481691074</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>57.26455526195573</v>
+        <v>87.64519792334728</v>
       </c>
     </row>
     <row r="3">
@@ -809,85 +801,82 @@
         <v>153.9651008216511</v>
       </c>
       <c r="O3" t="n">
-        <v>358.2887492794404</v>
+        <v>52556.48707280276</v>
       </c>
       <c r="P3" t="n">
-        <v>33866.96338608633</v>
+        <v>1751.885758724095</v>
       </c>
       <c r="Q3" t="n">
-        <v>1751.885758724095</v>
+        <v>8783.401588646173</v>
       </c>
       <c r="R3" t="n">
-        <v>5291.058422772536</v>
+        <v>3429.298490962553</v>
       </c>
       <c r="S3" t="n">
-        <v>2052.002525744165</v>
+        <v>323.0204331213682</v>
       </c>
       <c r="T3" t="n">
-        <v>194.6396707597251</v>
+        <v>1195.721421478825</v>
       </c>
       <c r="U3" t="n">
-        <v>702.4730733159136</v>
+        <v>55.96361976284914</v>
       </c>
       <c r="V3" t="n">
-        <v>35.42045487912127</v>
+        <v>4625.026836929241</v>
       </c>
       <c r="W3" t="n">
-        <v>2754.475599060079</v>
+        <v>378.9789002374194</v>
       </c>
       <c r="X3" t="n">
-        <v>230.0601256388464</v>
+        <v>543.228124848298</v>
       </c>
       <c r="Y3" t="n">
-        <v>344.9567362301711</v>
+        <v>30.38544699830802</v>
       </c>
       <c r="Z3" t="n">
-        <v>17.94975601339062</v>
+        <v>364.1154490126425</v>
       </c>
       <c r="AA3" t="n">
-        <v>241.7521813206048</v>
+        <v>61.79550433993322</v>
       </c>
       <c r="AB3" t="n">
-        <v>36.77857176103787</v>
+        <v>57224.23252624235</v>
       </c>
       <c r="AC3" t="n">
-        <v>36899.27290245178</v>
+        <v>1907.475750357183</v>
       </c>
       <c r="AD3" t="n">
-        <v>1907.475750357183</v>
+        <v>10975.58394782483</v>
       </c>
       <c r="AE3" t="n">
-        <v>6803.826187594114</v>
+        <v>4272.080688051089</v>
       </c>
       <c r="AF3" t="n">
-        <v>2591.572087813767</v>
+        <v>397.2430407302519</v>
       </c>
       <c r="AG3" t="n">
-        <v>242.246264508256</v>
+        <v>1155.964724951397</v>
       </c>
       <c r="AH3" t="n">
-        <v>695.2022267060671</v>
+        <v>61.16477040514143</v>
       </c>
       <c r="AI3" t="n">
-        <v>37.05073818485447</v>
+        <v>5428.043714816538</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3286.774314519834</v>
+        <v>458.408238176967</v>
       </c>
       <c r="AK3" t="n">
-        <v>279.2970026931105</v>
+        <v>625.3236236488267</v>
       </c>
       <c r="AL3" t="n">
-        <v>410.8528962247676</v>
+        <v>31.7271845546666</v>
       </c>
       <c r="AM3" t="n">
-        <v>19.2219407414856</v>
+        <v>454.0250362749567</v>
       </c>
       <c r="AN3" t="n">
-        <v>302.4170984807979</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>52.70079168228965</v>
+        <v>84.67060270468563</v>
       </c>
     </row>
     <row r="4">
@@ -934,85 +923,82 @@
         <v>150.8099557546173</v>
       </c>
       <c r="O4" t="n">
-        <v>358.2222457641805</v>
+        <v>51673.42249383338</v>
       </c>
       <c r="P4" t="n">
-        <v>32730.13994521673</v>
+        <v>1722.446661618277</v>
       </c>
       <c r="Q4" t="n">
-        <v>1722.446661618277</v>
+        <v>8427.352769736764</v>
       </c>
       <c r="R4" t="n">
-        <v>4959.267495662396</v>
+        <v>3333.133021793655</v>
       </c>
       <c r="S4" t="n">
-        <v>1877.971773265787</v>
+        <v>332.4429412206204</v>
       </c>
       <c r="T4" t="n">
-        <v>188.813712783986</v>
+        <v>1348.644224786753</v>
       </c>
       <c r="U4" t="n">
-        <v>708.049376448151</v>
+        <v>62.87743901038993</v>
       </c>
       <c r="V4" t="n">
-        <v>35.65509072178402</v>
+        <v>4681.775144202405</v>
       </c>
       <c r="W4" t="n">
-        <v>2586.021149713938</v>
+        <v>395.3233882265021</v>
       </c>
       <c r="X4" t="n">
-        <v>224.46880350577</v>
+        <v>537.7460102217036</v>
       </c>
       <c r="Y4" t="n">
-        <v>339.6603731605088</v>
+        <v>29.28051503245537</v>
       </c>
       <c r="Z4" t="n">
-        <v>17.66833344114903</v>
+        <v>368.7499502359852</v>
       </c>
       <c r="AA4" t="n">
-        <v>240.0028277939376</v>
+        <v>59.77855388986645</v>
       </c>
       <c r="AB4" t="n">
-        <v>35.76755684831824</v>
+        <v>54385.70773365749</v>
       </c>
       <c r="AC4" t="n">
-        <v>35433.70338850462</v>
+        <v>1812.857001173125</v>
       </c>
       <c r="AD4" t="n">
-        <v>1812.857001173125</v>
+        <v>10137.88925321401</v>
       </c>
       <c r="AE4" t="n">
-        <v>6350.441781081894</v>
+        <v>3825.329914235325</v>
       </c>
       <c r="AF4" t="n">
-        <v>2367.442428170452</v>
+        <v>359.0309414425938</v>
       </c>
       <c r="AG4" t="n">
-        <v>223.7411848465103</v>
+        <v>1086.434421822751</v>
       </c>
       <c r="AH4" t="n">
-        <v>647.277633437265</v>
+        <v>54.09231149437992</v>
       </c>
       <c r="AI4" t="n">
-        <v>33.98043345149762</v>
+        <v>4911.768222000286</v>
       </c>
       <c r="AJ4" t="n">
-        <v>3014.720061607717</v>
+        <v>413.1266313264946</v>
       </c>
       <c r="AK4" t="n">
-        <v>257.7216182980079</v>
+        <v>606.9067883821256</v>
       </c>
       <c r="AL4" t="n">
-        <v>402.7180278369505</v>
+        <v>29.92546649048203</v>
       </c>
       <c r="AM4" t="n">
-        <v>19.11500382298023</v>
+        <v>437.4772970779642</v>
       </c>
       <c r="AN4" t="n">
-        <v>292.925247956128</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>49.46761896185865</v>
+        <v>79.95282111178923</v>
       </c>
     </row>
     <row r="5">
@@ -1059,85 +1045,82 @@
         <v>162.6489688129407</v>
       </c>
       <c r="O5" t="n">
-        <v>375.8536649039936</v>
+        <v>53768.06400188246</v>
       </c>
       <c r="P5" t="n">
-        <v>35334.23028874786</v>
+        <v>1792.268367635746</v>
       </c>
       <c r="Q5" t="n">
-        <v>1792.268367635746</v>
+        <v>8944.270737911462</v>
       </c>
       <c r="R5" t="n">
-        <v>5503.590015593648</v>
+        <v>3840.448111688102</v>
       </c>
       <c r="S5" t="n">
-        <v>2177.758375279665</v>
+        <v>354.5780322361421</v>
       </c>
       <c r="T5" t="n">
-        <v>206.9878001094843</v>
+        <v>1417.326624029474</v>
       </c>
       <c r="U5" t="n">
-        <v>791.7962318274268</v>
+        <v>69.65892696918011</v>
       </c>
       <c r="V5" t="n">
-        <v>41.01802683597457</v>
+        <v>5257.775556144838</v>
       </c>
       <c r="W5" t="n">
-        <v>2969.554607107092</v>
+        <v>424.2300778243933</v>
       </c>
       <c r="X5" t="n">
-        <v>248.0058269454589</v>
+        <v>557.0857672140075</v>
       </c>
       <c r="Y5" t="n">
-        <v>357.0914594156788</v>
+        <v>32.87709812709897</v>
       </c>
       <c r="Z5" t="n">
-        <v>20.02571989118679</v>
+        <v>385.5719190026592</v>
       </c>
       <c r="AA5" t="n">
-        <v>254.3507621399002</v>
+        <v>63.57540981936237</v>
       </c>
       <c r="AB5" t="n">
-        <v>38.6477515346886</v>
+        <v>59415.18453292729</v>
       </c>
       <c r="AC5" t="n">
-        <v>38446.6563022504</v>
+        <v>1980.506639684747</v>
       </c>
       <c r="AD5" t="n">
-        <v>1980.506639684747</v>
+        <v>11440.267762693</v>
       </c>
       <c r="AE5" t="n">
-        <v>7134.41140752196</v>
+        <v>4512.593069975823</v>
       </c>
       <c r="AF5" t="n">
-        <v>2742.366250093785</v>
+        <v>416.3420547888295</v>
       </c>
       <c r="AG5" t="n">
-        <v>255.0682227032171</v>
+        <v>1297.07877928472</v>
       </c>
       <c r="AH5" t="n">
-        <v>767.7592365560729</v>
+        <v>63.4079794857866</v>
       </c>
       <c r="AI5" t="n">
-        <v>39.59349843588743</v>
+        <v>5809.67367100135</v>
       </c>
       <c r="AJ5" t="n">
-        <v>3510.125486649858</v>
+        <v>479.7508613085096</v>
       </c>
       <c r="AK5" t="n">
-        <v>294.6617211391045</v>
+        <v>668.441089820755</v>
       </c>
       <c r="AL5" t="n">
-        <v>431.0143051030541</v>
+        <v>39.3156607897179</v>
       </c>
       <c r="AM5" t="n">
-        <v>21.73245896403734</v>
+        <v>475.4728046863204</v>
       </c>
       <c r="AN5" t="n">
-        <v>314.1205974867328</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>56.38533795693186</v>
+        <v>95.72184136486116</v>
       </c>
     </row>
     <row r="6">
@@ -1184,85 +1167,82 @@
         <v>157.450742619312</v>
       </c>
       <c r="O6" t="n">
-        <v>363.3861121821283</v>
+        <v>53208.55552323072</v>
       </c>
       <c r="P6" t="n">
-        <v>33972.97299564049</v>
+        <v>1773.616161259879</v>
       </c>
       <c r="Q6" t="n">
-        <v>1773.616161259879</v>
+        <v>8606.453087444195</v>
       </c>
       <c r="R6" t="n">
-        <v>5246.396090100481</v>
+        <v>3655.735941119787</v>
       </c>
       <c r="S6" t="n">
-        <v>2101.636095803781</v>
+        <v>348.9615403676448</v>
       </c>
       <c r="T6" t="n">
-        <v>203.3162909362715</v>
+        <v>1363.534685946806</v>
       </c>
       <c r="U6" t="n">
-        <v>765.7592062855383</v>
+        <v>68.01549166632742</v>
       </c>
       <c r="V6" t="n">
-        <v>40.11610516165307</v>
+        <v>5019.272706041334</v>
       </c>
       <c r="W6" t="n">
-        <v>2867.395302089319</v>
+        <v>416.9705224325571</v>
       </c>
       <c r="X6" t="n">
-        <v>243.4323960979245</v>
+        <v>556.3160595651316</v>
       </c>
       <c r="Y6" t="n">
-        <v>342.241021508667</v>
+        <v>31.05391273762531</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.01877495617482</v>
+        <v>376.5179740776742</v>
       </c>
       <c r="AA6" t="n">
-        <v>241.1460361952947</v>
+        <v>63.23010011572761</v>
       </c>
       <c r="AB6" t="n">
-        <v>37.668207598865</v>
+        <v>57032.44371234343</v>
       </c>
       <c r="AC6" t="n">
-        <v>36959.52976106082</v>
+        <v>1901.082043251098</v>
       </c>
       <c r="AD6" t="n">
-        <v>1901.082043251098</v>
+        <v>10879.05645821701</v>
       </c>
       <c r="AE6" t="n">
-        <v>6891.473028128283</v>
+        <v>4258.91052576914</v>
       </c>
       <c r="AF6" t="n">
-        <v>2637.170586999962</v>
+        <v>390.2216495635805</v>
       </c>
       <c r="AG6" t="n">
-        <v>245.6549587072862</v>
+        <v>1098.573022122026</v>
       </c>
       <c r="AH6" t="n">
-        <v>695.8755989105704</v>
+        <v>55.42075778125338</v>
       </c>
       <c r="AI6" t="n">
-        <v>36.30165615767068</v>
+        <v>5357.485633451721</v>
       </c>
       <c r="AJ6" t="n">
-        <v>3333.046185910533</v>
+        <v>445.6421039282268</v>
       </c>
       <c r="AK6" t="n">
-        <v>281.9566148649569</v>
+        <v>636.4089690482757</v>
       </c>
       <c r="AL6" t="n">
-        <v>410.968942952476</v>
+        <v>30.39866796639641</v>
       </c>
       <c r="AM6" t="n">
-        <v>19.44854639586937</v>
+        <v>454.2029655444614</v>
       </c>
       <c r="AN6" t="n">
-        <v>296.9500696361839</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>51.27113638557144</v>
+        <v>82.6103710615096</v>
       </c>
     </row>
     <row r="7">
@@ -1309,85 +1289,82 @@
         <v>157.1746254106996</v>
       </c>
       <c r="O7" t="n">
-        <v>360.4681207684073</v>
+        <v>52198.18089026929</v>
       </c>
       <c r="P7" t="n">
-        <v>34464.37337271614</v>
+        <v>1739.940753964406</v>
       </c>
       <c r="Q7" t="n">
-        <v>1739.940753964406</v>
+        <v>8452.661386871299</v>
       </c>
       <c r="R7" t="n">
-        <v>5318.347359916299</v>
+        <v>3445.159354909821</v>
       </c>
       <c r="S7" t="n">
-        <v>2088.170212465859</v>
+        <v>325.808214031204</v>
       </c>
       <c r="T7" t="n">
-        <v>202.2466584734824</v>
+        <v>1225.098897858607</v>
       </c>
       <c r="U7" t="n">
-        <v>741.1901290780911</v>
+        <v>62.30404940808886</v>
       </c>
       <c r="V7" t="n">
-        <v>38.82945928675765</v>
+        <v>4670.259278752901</v>
       </c>
       <c r="W7" t="n">
-        <v>2829.36034154395</v>
+        <v>388.1140320952411</v>
       </c>
       <c r="X7" t="n">
-        <v>241.0761177602401</v>
+        <v>547.6980279649401</v>
       </c>
       <c r="Y7" t="n">
-        <v>352.5557176714625</v>
+        <v>32.03594086456719</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.62469756106537</v>
+        <v>371.337959810718</v>
       </c>
       <c r="AA7" t="n">
-        <v>245.5209881781942</v>
+        <v>56.17751359232393</v>
       </c>
       <c r="AB7" t="n">
-        <v>35.85266634183193</v>
+        <v>57519.45521581101</v>
       </c>
       <c r="AC7" t="n">
-        <v>37494.08796275256</v>
+        <v>1917.315984982217</v>
       </c>
       <c r="AD7" t="n">
-        <v>1917.315984982217</v>
+        <v>10886.40789813879</v>
       </c>
       <c r="AE7" t="n">
-        <v>6902.252570275921</v>
+        <v>4206.724308269321</v>
       </c>
       <c r="AF7" t="n">
-        <v>2644.485531853538</v>
+        <v>378.9512372065629</v>
       </c>
       <c r="AG7" t="n">
-        <v>245.1916972758271</v>
+        <v>1048.797588191297</v>
       </c>
       <c r="AH7" t="n">
-        <v>663.8346289152803</v>
+        <v>53.78456625220704</v>
       </c>
       <c r="AI7" t="n">
-        <v>35.68340863595454</v>
+        <v>5255.523990358417</v>
       </c>
       <c r="AJ7" t="n">
-        <v>3308.320160768819</v>
+        <v>432.738379297666</v>
       </c>
       <c r="AK7" t="n">
-        <v>280.8751059117816</v>
+        <v>652.4074353639297</v>
       </c>
       <c r="AL7" t="n">
-        <v>428.5126023004581</v>
+        <v>30.38833831330519</v>
       </c>
       <c r="AM7" t="n">
-        <v>19.37973470678221</v>
+        <v>463.0298246218704</v>
       </c>
       <c r="AN7" t="n">
-        <v>306.6032046604236</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>52.53799288016181</v>
+        <v>85.33024479376276</v>
       </c>
     </row>
     <row r="8">
@@ -1434,85 +1411,82 @@
         <v>162.8946373955829</v>
       </c>
       <c r="O8" t="n">
-        <v>371.844049806406</v>
+        <v>53348.02712288561</v>
       </c>
       <c r="P8" t="n">
-        <v>34914.40601067488</v>
+        <v>1778.266854243952</v>
       </c>
       <c r="Q8" t="n">
-        <v>1778.266854243952</v>
+        <v>8730.44142063968</v>
       </c>
       <c r="R8" t="n">
-        <v>5379.509001099284</v>
+        <v>3756.435744968702</v>
       </c>
       <c r="S8" t="n">
-        <v>2170.608536450084</v>
+        <v>356.6233538888706</v>
       </c>
       <c r="T8" t="n">
-        <v>209.7048010116269</v>
+        <v>1442.499753710412</v>
       </c>
       <c r="U8" t="n">
-        <v>806.8279090231206</v>
+        <v>71.21573089380834</v>
       </c>
       <c r="V8" t="n">
-        <v>42.24107305477083</v>
+        <v>5198.936429510135</v>
       </c>
       <c r="W8" t="n">
-        <v>2977.436445473205</v>
+        <v>427.8347810784617</v>
       </c>
       <c r="X8" t="n">
-        <v>251.9458740663977</v>
+        <v>561.8214936209644</v>
       </c>
       <c r="Y8" t="n">
-        <v>362.7383928364973</v>
+        <v>31.00948533746886</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.38924840089599</v>
+        <v>380.9877848188738</v>
       </c>
       <c r="AA8" t="n">
-        <v>254.5153920066149</v>
+        <v>62.17170973826025</v>
       </c>
       <c r="AB8" t="n">
-        <v>38.79958238261443</v>
+        <v>58303.15504254043</v>
       </c>
       <c r="AC8" t="n">
-        <v>37856.98744318465</v>
+        <v>1943.434338759775</v>
       </c>
       <c r="AD8" t="n">
-        <v>1943.434338759775</v>
+        <v>11469.58117767859</v>
       </c>
       <c r="AE8" t="n">
-        <v>7061.86698820124</v>
+        <v>4532.750105007507</v>
       </c>
       <c r="AF8" t="n">
-        <v>2790.526250616703</v>
+        <v>414.6728301788488</v>
       </c>
       <c r="AG8" t="n">
-        <v>261.1838688568645</v>
+        <v>1236.885280652562</v>
       </c>
       <c r="AH8" t="n">
-        <v>758.6818406051696</v>
+        <v>63.30610827418518</v>
       </c>
       <c r="AI8" t="n">
-        <v>40.38186347429143</v>
+        <v>5769.6345435563</v>
       </c>
       <c r="AJ8" t="n">
-        <v>3549.208091221872</v>
+        <v>477.9825090069959</v>
       </c>
       <c r="AK8" t="n">
-        <v>301.565732331156</v>
+        <v>644.5322227023252</v>
       </c>
       <c r="AL8" t="n">
-        <v>424.8436351402478</v>
+        <v>31.64976783456274</v>
       </c>
       <c r="AM8" t="n">
-        <v>20.29719347119582</v>
+        <v>458.785523291221</v>
       </c>
       <c r="AN8" t="n">
-        <v>307.9309981600211</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>53.88844342493879</v>
+        <v>85.59601949971322</v>
       </c>
     </row>
     <row r="9">
@@ -1559,85 +1533,82 @@
         <v>164.2320009344356</v>
       </c>
       <c r="O9" t="n">
-        <v>372.3028478154274</v>
+        <v>54487.64588993571</v>
       </c>
       <c r="P9" t="n">
-        <v>35492.26575163686</v>
+        <v>1816.251227253666</v>
       </c>
       <c r="Q9" t="n">
-        <v>1816.251227253666</v>
+        <v>9156.986363218582</v>
       </c>
       <c r="R9" t="n">
-        <v>5581.548468676248</v>
+        <v>3942.758268721265</v>
       </c>
       <c r="S9" t="n">
-        <v>2234.125120392387</v>
+        <v>370.2412936596491</v>
       </c>
       <c r="T9" t="n">
-        <v>215.5234871163929</v>
+        <v>1447.221427169449</v>
       </c>
       <c r="U9" t="n">
-        <v>784.7523064317671</v>
+        <v>68.481802740829</v>
       </c>
       <c r="V9" t="n">
-        <v>39.41461198370323</v>
+        <v>5389.977350161693</v>
       </c>
       <c r="W9" t="n">
-        <v>3018.877426824154</v>
+        <v>438.729150678989</v>
       </c>
       <c r="X9" t="n">
-        <v>254.9380991000961</v>
+        <v>580.4883650707136</v>
       </c>
       <c r="Y9" t="n">
-        <v>364.7737844318448</v>
+        <v>36.47678166982555</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.68447486444864</v>
+        <v>386.847518989191</v>
       </c>
       <c r="AA9" t="n">
-        <v>254.7379197459381</v>
+        <v>68.07334435263084</v>
       </c>
       <c r="AB9" t="n">
-        <v>41.09456732504683</v>
+        <v>58170.67539223415</v>
       </c>
       <c r="AC9" t="n">
-        <v>38478.09167286696</v>
+        <v>1939.025159190179</v>
       </c>
       <c r="AD9" t="n">
-        <v>1939.025159190179</v>
+        <v>11268.00804710056</v>
       </c>
       <c r="AE9" t="n">
-        <v>7217.759617001757</v>
+        <v>4381.458690461487</v>
       </c>
       <c r="AF9" t="n">
-        <v>2778.173969276665</v>
+        <v>406.0359668688883</v>
       </c>
       <c r="AG9" t="n">
-        <v>258.0106747583906</v>
+        <v>1197.088925041935</v>
       </c>
       <c r="AH9" t="n">
-        <v>736.130913712267</v>
+        <v>61.22119787944204</v>
       </c>
       <c r="AI9" t="n">
-        <v>38.30082594776468</v>
+        <v>5578.547970986345</v>
       </c>
       <c r="AJ9" t="n">
-        <v>3514.304882988932</v>
+        <v>467.254376445821</v>
       </c>
       <c r="AK9" t="n">
-        <v>296.3115007061552</v>
+        <v>656.9764336840005</v>
       </c>
       <c r="AL9" t="n">
-        <v>436.152524290784</v>
+        <v>31.76164892440802</v>
       </c>
       <c r="AM9" t="n">
-        <v>19.518561526718</v>
+        <v>473.1985677672518</v>
       </c>
       <c r="AN9" t="n">
-        <v>316.6660576961739</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>55.71217877714231</v>
+        <v>89.77363261022406</v>
       </c>
     </row>
     <row r="10">
@@ -1684,85 +1655,82 @@
         <v>151.7966130627236</v>
       </c>
       <c r="O10" t="n">
-        <v>370.8742058694613</v>
+        <v>53876.18417130494</v>
       </c>
       <c r="P10" t="n">
-        <v>34163.73110792448</v>
+        <v>1795.869249821963</v>
       </c>
       <c r="Q10" t="n">
-        <v>1795.869249821963</v>
+        <v>8883.461555433047</v>
       </c>
       <c r="R10" t="n">
-        <v>5340.14972373046</v>
+        <v>3681.04116439466</v>
       </c>
       <c r="S10" t="n">
-        <v>2136.654832638244</v>
+        <v>338.2255076645236</v>
       </c>
       <c r="T10" t="n">
-        <v>200.7755228385608</v>
+        <v>1402.361814606135</v>
       </c>
       <c r="U10" t="n">
-        <v>773.8480508438903</v>
+        <v>65.29195306701342</v>
       </c>
       <c r="V10" t="n">
-        <v>38.85345092077027</v>
+        <v>5083.401265301319</v>
       </c>
       <c r="W10" t="n">
-        <v>2910.502883482135</v>
+        <v>403.5219061541559</v>
       </c>
       <c r="X10" t="n">
-        <v>239.6289737593311</v>
+        <v>556.2283222164403</v>
       </c>
       <c r="Y10" t="n">
-        <v>347.0976900974272</v>
+        <v>37.28194958516649</v>
       </c>
       <c r="Z10" t="n">
-        <v>21.88255841850638</v>
+        <v>377.9915363509831</v>
       </c>
       <c r="AA10" t="n">
-        <v>242.8524603830051</v>
+        <v>66.98847406480277</v>
       </c>
       <c r="AB10" t="n">
-        <v>39.75007499323746</v>
+        <v>57537.97729831604</v>
       </c>
       <c r="AC10" t="n">
-        <v>37000.70120409606</v>
+        <v>1917.929594739763</v>
       </c>
       <c r="AD10" t="n">
-        <v>1917.929594739763</v>
+        <v>10854.04835083949</v>
       </c>
       <c r="AE10" t="n">
-        <v>6780.371103569264</v>
+        <v>4480.178772314311</v>
       </c>
       <c r="AF10" t="n">
-        <v>2717.738251559861</v>
+        <v>405.993978730939</v>
       </c>
       <c r="AG10" t="n">
-        <v>248.9701398410544</v>
+        <v>1242.290194831177</v>
       </c>
       <c r="AH10" t="n">
-        <v>733.8423499027974</v>
+        <v>64.31521152835705</v>
       </c>
       <c r="AI10" t="n">
-        <v>39.84400270814324</v>
+        <v>5722.464251128333</v>
       </c>
       <c r="AJ10" t="n">
-        <v>3451.580601462659</v>
+        <v>470.308552558266</v>
       </c>
       <c r="AK10" t="n">
-        <v>288.8141425491976</v>
+        <v>627.3453647936979</v>
       </c>
       <c r="AL10" t="n">
-        <v>406.4127638075884</v>
+        <v>33.59401636214633</v>
       </c>
       <c r="AM10" t="n">
-        <v>20.1369506019449</v>
+        <v>451.6684568916063</v>
       </c>
       <c r="AN10" t="n">
-        <v>297.8954138280607</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>48.36564659932094</v>
+        <v>80.28273540703944</v>
       </c>
     </row>
     <row r="11">
@@ -1809,85 +1777,82 @@
         <v>153.2832513838939</v>
       </c>
       <c r="O11" t="n">
-        <v>359.6693115512198</v>
+        <v>53074.5686525028</v>
       </c>
       <c r="P11" t="n">
-        <v>33342.13179159786</v>
+        <v>1769.151292474647</v>
       </c>
       <c r="Q11" t="n">
-        <v>1769.151292474647</v>
+        <v>8948.638006412495</v>
       </c>
       <c r="R11" t="n">
-        <v>5290.12769812942</v>
+        <v>3669.641432930422</v>
       </c>
       <c r="S11" t="n">
-        <v>2063.957815212666</v>
+        <v>347.1665853754931</v>
       </c>
       <c r="T11" t="n">
-        <v>200.8531120605869</v>
+        <v>1396.092869203853</v>
       </c>
       <c r="U11" t="n">
-        <v>779.813011386904</v>
+        <v>66.67018430158896</v>
       </c>
       <c r="V11" t="n">
-        <v>39.9474380811503</v>
+        <v>5065.731120103346</v>
       </c>
       <c r="W11" t="n">
-        <v>2843.770826599569</v>
+        <v>413.8380494024359</v>
       </c>
       <c r="X11" t="n">
-        <v>240.8005501417372</v>
+        <v>551.1524662643527</v>
       </c>
       <c r="Y11" t="n">
-        <v>333.9402504900181</v>
+        <v>36.62254375898399</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.11494664486627</v>
+        <v>383.5730292989747</v>
       </c>
       <c r="AA11" t="n">
-        <v>240.4316935092301</v>
+        <v>64.75800252170876</v>
       </c>
       <c r="AB11" t="n">
-        <v>38.448811390444</v>
+        <v>57189.81885840406</v>
       </c>
       <c r="AC11" t="n">
-        <v>36220.07161877192</v>
+        <v>1906.326846125562</v>
       </c>
       <c r="AD11" t="n">
-        <v>1906.326846125562</v>
+        <v>11461.4700303958</v>
       </c>
       <c r="AE11" t="n">
-        <v>6947.849987953763</v>
+        <v>4655.283216534268</v>
       </c>
       <c r="AF11" t="n">
-        <v>2794.581508756421</v>
+        <v>420.0788807835062</v>
       </c>
       <c r="AG11" t="n">
-        <v>252.4038209858627</v>
+        <v>1309.308810267915</v>
       </c>
       <c r="AH11" t="n">
-        <v>738.2771801364381</v>
+        <v>64.25866001800775</v>
       </c>
       <c r="AI11" t="n">
-        <v>38.23103470395756</v>
+        <v>5964.593143921162</v>
       </c>
       <c r="AJ11" t="n">
-        <v>3532.85868889286</v>
+        <v>484.3386974892907</v>
       </c>
       <c r="AK11" t="n">
-        <v>290.6348556898203</v>
+        <v>638.1202984282752</v>
       </c>
       <c r="AL11" t="n">
-        <v>405.4142172128725</v>
+        <v>32.48665629117328</v>
       </c>
       <c r="AM11" t="n">
-        <v>19.42565557529899</v>
+        <v>443.763599295106</v>
       </c>
       <c r="AN11" t="n">
-        <v>292.6048699209729</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>51.36973373879015</v>
+        <v>86.28077604749767</v>
       </c>
     </row>
     <row r="12">
@@ -1934,85 +1899,82 @@
         <v>162.855711269174</v>
       </c>
       <c r="O12" t="n">
-        <v>358.7138583670425</v>
+        <v>53251.26121827136</v>
       </c>
       <c r="P12" t="n">
-        <v>34843.95905818896</v>
+        <v>1775.045307733034</v>
       </c>
       <c r="Q12" t="n">
-        <v>1775.045307733034</v>
+        <v>8981.351388859253</v>
       </c>
       <c r="R12" t="n">
-        <v>5533.638000863829</v>
+        <v>3760.306325860163</v>
       </c>
       <c r="S12" t="n">
-        <v>2192.68198998167</v>
+        <v>349.872069746474</v>
       </c>
       <c r="T12" t="n">
-        <v>207.4401506598494</v>
+        <v>1394.200640853691</v>
       </c>
       <c r="U12" t="n">
-        <v>728.5402937884531</v>
+        <v>67.17114824166644</v>
       </c>
       <c r="V12" t="n">
-        <v>38.75467387965288</v>
+        <v>5154.512758957675</v>
       </c>
       <c r="W12" t="n">
-        <v>2921.222283770123</v>
+        <v>417.0446269052055</v>
       </c>
       <c r="X12" t="n">
-        <v>246.1948245395022</v>
+        <v>565.5599449053987</v>
       </c>
       <c r="Y12" t="n">
-        <v>363.4785978418246</v>
+        <v>28.61261866545255</v>
       </c>
       <c r="Z12" t="n">
-        <v>19.05169586449805</v>
+        <v>373.3770130762377</v>
       </c>
       <c r="AA12" t="n">
-        <v>250.991471916851</v>
+        <v>63.34391089776026</v>
       </c>
       <c r="AB12" t="n">
-        <v>38.1868544048026</v>
+        <v>57381.33364974989</v>
       </c>
       <c r="AC12" t="n">
-        <v>37928.16434824357</v>
+        <v>1912.714409179076</v>
       </c>
       <c r="AD12" t="n">
-        <v>1912.714409179076</v>
+        <v>11492.75341890501</v>
       </c>
       <c r="AE12" t="n">
-        <v>7241.818952458065</v>
+        <v>4455.760096556866</v>
       </c>
       <c r="AF12" t="n">
-        <v>2738.680730296603</v>
+        <v>408.1785477797342</v>
       </c>
       <c r="AG12" t="n">
-        <v>255.6424802349509</v>
+        <v>1171.4297621561</v>
       </c>
       <c r="AH12" t="n">
-        <v>712.6871324376737</v>
+        <v>58.67155893634622</v>
       </c>
       <c r="AI12" t="n">
-        <v>37.61995090922905</v>
+        <v>5627.188948850021</v>
       </c>
       <c r="AJ12" t="n">
-        <v>3451.367862734277</v>
+        <v>466.8505140802102</v>
       </c>
       <c r="AK12" t="n">
-        <v>293.26243114418</v>
+        <v>646.1110189251647</v>
       </c>
       <c r="AL12" t="n">
-        <v>431.813193576161</v>
+        <v>31.46871624393359</v>
       </c>
       <c r="AM12" t="n">
-        <v>19.54756798088415</v>
+        <v>458.5033870932184</v>
       </c>
       <c r="AN12" t="n">
-        <v>312.7015760674757</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>53.97750783645192</v>
+        <v>86.36380691918248</v>
       </c>
     </row>
     <row r="13">
@@ -2059,85 +2021,82 @@
         <v>164.8564941103688</v>
       </c>
       <c r="O13" t="n">
-        <v>359.5557546751413</v>
+        <v>52070.1028541726</v>
       </c>
       <c r="P13" t="n">
-        <v>35167.05216589443</v>
+        <v>1735.671779532972</v>
       </c>
       <c r="Q13" t="n">
-        <v>1735.671779532972</v>
+        <v>8616.476379852875</v>
       </c>
       <c r="R13" t="n">
-        <v>5547.269527510926</v>
+        <v>3543.04531526509</v>
       </c>
       <c r="S13" t="n">
-        <v>2199.889591264498</v>
+        <v>344.6509746938345</v>
       </c>
       <c r="T13" t="n">
-        <v>213.8211949225096</v>
+        <v>1339.018089042389</v>
       </c>
       <c r="U13" t="n">
-        <v>796.6760082597651</v>
+        <v>65.09211751416912</v>
       </c>
       <c r="V13" t="n">
-        <v>40.95504064265029</v>
+        <v>4882.06031353081</v>
       </c>
       <c r="W13" t="n">
-        <v>2996.565599524263</v>
+        <v>409.7420089655275</v>
       </c>
       <c r="X13" t="n">
-        <v>254.7762355651599</v>
+        <v>571.5946326098347</v>
       </c>
       <c r="Y13" t="n">
-        <v>377.351135695281</v>
+        <v>32.5137884211658</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.75942850642389</v>
+        <v>380.8541213520061</v>
       </c>
       <c r="AA13" t="n">
-        <v>258.0200213306184</v>
+        <v>62.3994501246844</v>
       </c>
       <c r="AB13" t="n">
-        <v>40.70819085677215</v>
+        <v>56295.3858492252</v>
       </c>
       <c r="AC13" t="n">
-        <v>38375.52403532018</v>
+        <v>1876.514948941204</v>
       </c>
       <c r="AD13" t="n">
-        <v>1876.514948941204</v>
+        <v>10923.92679122741</v>
       </c>
       <c r="AE13" t="n">
-        <v>7249.839119142503</v>
+        <v>4413.360776832995</v>
       </c>
       <c r="AF13" t="n">
-        <v>2855.101440069482</v>
+        <v>399.7341738267547</v>
       </c>
       <c r="AG13" t="n">
-        <v>266.3418050733023</v>
+        <v>1217.591419369572</v>
       </c>
       <c r="AH13" t="n">
-        <v>771.1547958136108</v>
+        <v>59.74026510778539</v>
       </c>
       <c r="AI13" t="n">
-        <v>39.76607352861232</v>
+        <v>5630.956750659079</v>
       </c>
       <c r="AJ13" t="n">
-        <v>3626.256235883092</v>
+        <v>459.4759847894517</v>
       </c>
       <c r="AK13" t="n">
-        <v>306.1078786019145</v>
+        <v>642.4174375765108</v>
       </c>
       <c r="AL13" t="n">
-        <v>437.7202804820812</v>
+        <v>32.80778287167024</v>
       </c>
       <c r="AM13" t="n">
-        <v>21.28979223240771</v>
+        <v>460.8702881515067</v>
       </c>
       <c r="AN13" t="n">
-        <v>317.1455203197289</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>55.5069563454444</v>
+        <v>84.59736489692111</v>
       </c>
     </row>
     <row r="14">
@@ -2184,85 +2143,82 @@
         <v>158.365788448777</v>
       </c>
       <c r="O14" t="n">
-        <v>365.6053193552759</v>
+        <v>53231.67485705773</v>
       </c>
       <c r="P14" t="n">
-        <v>34591.36695089514</v>
+        <v>1774.39035132417</v>
       </c>
       <c r="Q14" t="n">
-        <v>1774.39035132417</v>
+        <v>8983.165587297321</v>
       </c>
       <c r="R14" t="n">
-        <v>5508.478209869239</v>
+        <v>3636.784362400266</v>
       </c>
       <c r="S14" t="n">
-        <v>2122.379510625164</v>
+        <v>346.2358654882854</v>
       </c>
       <c r="T14" t="n">
-        <v>203.0490780487731</v>
+        <v>1308.248146672261</v>
       </c>
       <c r="U14" t="n">
-        <v>752.0388807884729</v>
+        <v>67.38874471371065</v>
       </c>
       <c r="V14" t="n">
-        <v>38.99004870424913</v>
+        <v>4945.030245782863</v>
       </c>
       <c r="W14" t="n">
-        <v>2874.418391413637</v>
+        <v>413.6296167649381</v>
       </c>
       <c r="X14" t="n">
-        <v>242.0391267530222</v>
+        <v>567.9645808516116</v>
       </c>
       <c r="Y14" t="n">
-        <v>363.3424602408618</v>
+        <v>30.76300990103333</v>
       </c>
       <c r="Z14" t="n">
-        <v>18.53789804897929</v>
+        <v>386.9954596484823</v>
       </c>
       <c r="AA14" t="n">
-        <v>255.4337933790087</v>
+        <v>59.68812908669585</v>
       </c>
       <c r="AB14" t="n">
-        <v>37.13172567240922</v>
+        <v>57486.698435855</v>
       </c>
       <c r="AC14" t="n">
-        <v>37693.61810502515</v>
+        <v>1916.221543302777</v>
       </c>
       <c r="AD14" t="n">
-        <v>1916.221543302777</v>
+        <v>11398.44304525453</v>
       </c>
       <c r="AE14" t="n">
-        <v>7108.8232263071</v>
+        <v>4613.93617939881</v>
       </c>
       <c r="AF14" t="n">
-        <v>2764.648348061231</v>
+        <v>421.9407740329734</v>
       </c>
       <c r="AG14" t="n">
-        <v>258.2149126928185</v>
+        <v>1277.834988690582</v>
       </c>
       <c r="AH14" t="n">
-        <v>753.2893546679836</v>
+        <v>62.62259728341534</v>
       </c>
       <c r="AI14" t="n">
-        <v>39.45815451997531</v>
+        <v>5891.77447758239</v>
       </c>
       <c r="AJ14" t="n">
-        <v>3517.937702729215</v>
+        <v>484.5671786949544</v>
       </c>
       <c r="AK14" t="n">
-        <v>297.6730672127938</v>
+        <v>653.4759840368009</v>
       </c>
       <c r="AL14" t="n">
-        <v>432.9959859768369</v>
+        <v>34.13584966817078</v>
       </c>
       <c r="AM14" t="n">
-        <v>20.50195546677435</v>
+        <v>471.7538073209109</v>
       </c>
       <c r="AN14" t="n">
-        <v>319.5883590101669</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>55.28221999617042</v>
+        <v>87.43457523917803</v>
       </c>
     </row>
     <row r="15">
@@ -2309,85 +2265,82 @@
         <v>162.0259143052435</v>
       </c>
       <c r="O15" t="n">
-        <v>366.8481783942545</v>
+        <v>54871.23444926846</v>
       </c>
       <c r="P15" t="n">
-        <v>34711.67006610193</v>
+        <v>1829.04002611206</v>
       </c>
       <c r="Q15" t="n">
-        <v>1829.04002611206</v>
+        <v>9361.516295903048</v>
       </c>
       <c r="R15" t="n">
-        <v>5566.379405165667</v>
+        <v>3869.384847592336</v>
       </c>
       <c r="S15" t="n">
-        <v>2183.475174085462</v>
+        <v>343.4772811801163</v>
       </c>
       <c r="T15" t="n">
-        <v>203.0161805215183</v>
+        <v>1353.410277164825</v>
       </c>
       <c r="U15" t="n">
-        <v>773.0013408454809</v>
+        <v>61.41091782064444</v>
       </c>
       <c r="V15" t="n">
-        <v>37.65035398252197</v>
+        <v>5222.795068794129</v>
       </c>
       <c r="W15" t="n">
-        <v>2956.476514930943</v>
+        <v>404.8928781804825</v>
       </c>
       <c r="X15" t="n">
-        <v>240.6665345040403</v>
+        <v>586.1752352501732</v>
       </c>
       <c r="Y15" t="n">
-        <v>362.5150712602309</v>
+        <v>36.11235296928661</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.03106469806903</v>
+        <v>394.8080869805377</v>
       </c>
       <c r="AA15" t="n">
-        <v>256.1510610483457</v>
+        <v>63.34696965667369</v>
       </c>
       <c r="AB15" t="n">
-        <v>38.48577757544636</v>
+        <v>58903.05491917357</v>
       </c>
       <c r="AC15" t="n">
-        <v>37977.27777808827</v>
+        <v>1963.433303568471</v>
       </c>
       <c r="AD15" t="n">
-        <v>1963.433303568471</v>
+        <v>11676.34202533969</v>
       </c>
       <c r="AE15" t="n">
-        <v>7285.510044980253</v>
+        <v>4709.681280174598</v>
       </c>
       <c r="AF15" t="n">
-        <v>2900.126913455272</v>
+        <v>415.6951342271276</v>
       </c>
       <c r="AG15" t="n">
-        <v>260.8725968697236</v>
+        <v>1251.251052996409</v>
       </c>
       <c r="AH15" t="n">
-        <v>782.3820244593232</v>
+        <v>60.36941994087798</v>
       </c>
       <c r="AI15" t="n">
-        <v>39.44330279198077</v>
+        <v>5960.930057895477</v>
       </c>
       <c r="AJ15" t="n">
-        <v>3682.508937914595</v>
+        <v>476.0641173696791</v>
       </c>
       <c r="AK15" t="n">
-        <v>300.3158996617043</v>
+        <v>660.0995799977644</v>
       </c>
       <c r="AL15" t="n">
-        <v>431.4902405820382</v>
+        <v>31.16968010027659</v>
       </c>
       <c r="AM15" t="n">
-        <v>20.28207066961313</v>
+        <v>467.6411928215359</v>
       </c>
       <c r="AN15" t="n">
-        <v>309.2235443370421</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>56.97905586639039</v>
+        <v>89.52355776020136</v>
       </c>
     </row>
     <row r="16">
@@ -2434,85 +2387,82 @@
         <v>170.7517357937018</v>
       </c>
       <c r="O16" t="n">
-        <v>348.4818689041225</v>
+        <v>50629.81662171891</v>
       </c>
       <c r="P16" t="n">
-        <v>35421.21877688701</v>
+        <v>1687.657965933987</v>
       </c>
       <c r="Q16" t="n">
-        <v>1687.657965933987</v>
+        <v>8693.18609524002</v>
       </c>
       <c r="R16" t="n">
-        <v>5795.346401631685</v>
+        <v>3554.137074652582</v>
       </c>
       <c r="S16" t="n">
-        <v>2262.974440128755</v>
+        <v>344.9510322362775</v>
       </c>
       <c r="T16" t="n">
-        <v>218.478856473589</v>
+        <v>1290.339370440872</v>
       </c>
       <c r="U16" t="n">
-        <v>782.8041739657054</v>
+        <v>63.95944766738002</v>
       </c>
       <c r="V16" t="n">
-        <v>40.63401403662994</v>
+        <v>4844.476007964966</v>
       </c>
       <c r="W16" t="n">
-        <v>3045.77861409446</v>
+        <v>408.9145395772251</v>
       </c>
       <c r="X16" t="n">
-        <v>259.112870510219</v>
+        <v>581.3758238943363</v>
       </c>
       <c r="Y16" t="n">
-        <v>398.8160761236677</v>
+        <v>34.12696814117592</v>
       </c>
       <c r="Z16" t="n">
-        <v>21.88241657360882</v>
+        <v>398.1947436045459</v>
       </c>
       <c r="AA16" t="n">
-        <v>281.5834339963986</v>
+        <v>59.28461881697449</v>
       </c>
       <c r="AB16" t="n">
-        <v>39.01304687318704</v>
+        <v>55079.77240205682</v>
       </c>
       <c r="AC16" t="n">
-        <v>38625.35877816853</v>
+        <v>1835.996234978126</v>
       </c>
       <c r="AD16" t="n">
-        <v>1835.996234978126</v>
+        <v>10932.04539811644</v>
       </c>
       <c r="AE16" t="n">
-        <v>7455.504988592489</v>
+        <v>4428.805140134515</v>
       </c>
       <c r="AF16" t="n">
-        <v>2978.24126951553</v>
+        <v>414.5087196657855</v>
       </c>
       <c r="AG16" t="n">
-        <v>275.286203347208</v>
+        <v>1247.002986954919</v>
       </c>
       <c r="AH16" t="n">
-        <v>792.0315846210444</v>
+        <v>60.2667067903145</v>
       </c>
       <c r="AI16" t="n">
-        <v>40.55744499892919</v>
+        <v>5675.814980764952</v>
       </c>
       <c r="AJ16" t="n">
-        <v>3770.272854136575</v>
+        <v>474.7706762093907</v>
       </c>
       <c r="AK16" t="n">
-        <v>315.8436483461372</v>
+        <v>660.5883622085763</v>
       </c>
       <c r="AL16" t="n">
-        <v>470.2677656577206</v>
+        <v>31.87173911831351</v>
       </c>
       <c r="AM16" t="n">
-        <v>22.5304793621595</v>
+        <v>470.7936540581811</v>
       </c>
       <c r="AN16" t="n">
-        <v>338.6875822397231</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>58.5898711720188</v>
+        <v>85.70737468386568</v>
       </c>
     </row>
     <row r="17">
@@ -2559,85 +2509,82 @@
         <v>174.2753290917406</v>
       </c>
       <c r="O17" t="n">
-        <v>361.8058660639826</v>
+        <v>52699.10521751587</v>
       </c>
       <c r="P17" t="n">
-        <v>35924.07714717222</v>
+        <v>1756.638591180119</v>
       </c>
       <c r="Q17" t="n">
-        <v>1756.638591180119</v>
+        <v>9107.456186041834</v>
       </c>
       <c r="R17" t="n">
-        <v>5883.224306645212</v>
+        <v>3659.516200701155</v>
       </c>
       <c r="S17" t="n">
-        <v>2292.851078814008</v>
+        <v>356.4325341896296</v>
       </c>
       <c r="T17" t="n">
-        <v>224.0649984852345</v>
+        <v>1436.761898481467</v>
       </c>
       <c r="U17" t="n">
-        <v>804.5359462753792</v>
+        <v>67.83027553992096</v>
       </c>
       <c r="V17" t="n">
-        <v>40.46753954407524</v>
+        <v>5096.278657795113</v>
       </c>
       <c r="W17" t="n">
-        <v>3097.387025089387</v>
+        <v>424.2591967373557</v>
       </c>
       <c r="X17" t="n">
-        <v>264.5325380293097</v>
+        <v>596.4080558786063</v>
       </c>
       <c r="Y17" t="n">
-        <v>394.6605108540441</v>
+        <v>37.93690893492229</v>
       </c>
       <c r="Z17" t="n">
-        <v>25.02812032432914</v>
+        <v>389.416238891439</v>
       </c>
       <c r="AA17" t="n">
-        <v>270.1287284560831</v>
+        <v>61.38306593513065</v>
       </c>
       <c r="AB17" t="n">
-        <v>40.29884689686725</v>
+        <v>56937.73949459652</v>
       </c>
       <c r="AC17" t="n">
-        <v>39253.06888958373</v>
+        <v>1897.924528135553</v>
       </c>
       <c r="AD17" t="n">
-        <v>1897.924528135553</v>
+        <v>11518.52701064625</v>
       </c>
       <c r="AE17" t="n">
-        <v>7672.743932776074</v>
+        <v>4590.448862310145</v>
       </c>
       <c r="AF17" t="n">
-        <v>2969.474906867442</v>
+        <v>414.2801129348574</v>
       </c>
       <c r="AG17" t="n">
-        <v>273.5270160949738</v>
+        <v>1258.262414988206</v>
       </c>
       <c r="AH17" t="n">
-        <v>757.5700819419329</v>
+        <v>57.84680068203508</v>
       </c>
       <c r="AI17" t="n">
-        <v>37.80876705045618</v>
+        <v>5848.711269483796</v>
       </c>
       <c r="AJ17" t="n">
-        <v>3727.044988809375</v>
+        <v>472.1246455589059</v>
       </c>
       <c r="AK17" t="n">
-        <v>311.3357831454299</v>
+        <v>676.2857254567514</v>
       </c>
       <c r="AL17" t="n">
-        <v>474.0570316873415</v>
+        <v>31.67418358512815</v>
       </c>
       <c r="AM17" t="n">
-        <v>21.56178411654049</v>
+        <v>488.6068429393483</v>
       </c>
       <c r="AN17" t="n">
-        <v>344.1329059983989</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>60.49410823492898</v>
+        <v>85.96474686734217</v>
       </c>
     </row>
     <row r="18">
@@ -2684,85 +2631,82 @@
         <v>164.2554096424832</v>
       </c>
       <c r="O18" t="n">
-        <v>374.1048460390865</v>
+        <v>56901.57014283773</v>
       </c>
       <c r="P18" t="n">
-        <v>35228.42615822412</v>
+        <v>1896.720222589846</v>
       </c>
       <c r="Q18" t="n">
-        <v>1896.720222589846</v>
+        <v>10047.71822043787</v>
       </c>
       <c r="R18" t="n">
-        <v>5876.87027670532</v>
+        <v>4023.256325583853</v>
       </c>
       <c r="S18" t="n">
-        <v>2282.144923800893</v>
+        <v>376.7733165152983</v>
       </c>
       <c r="T18" t="n">
-        <v>217.2411119039169</v>
+        <v>1479.526496981847</v>
       </c>
       <c r="U18" t="n">
-        <v>779.0292872004619</v>
+        <v>70.5030309849157</v>
       </c>
       <c r="V18" t="n">
-        <v>39.35058700278444</v>
+        <v>5502.77967006559</v>
       </c>
       <c r="W18" t="n">
-        <v>3061.174211001355</v>
+        <v>447.2758906434879</v>
       </c>
       <c r="X18" t="n">
-        <v>256.5916989067013</v>
+        <v>616.2894461410719</v>
       </c>
       <c r="Y18" t="n">
-        <v>376.4977654574936</v>
+        <v>37.98210788567378</v>
       </c>
       <c r="Z18" t="n">
-        <v>22.64441360648264</v>
+        <v>410.4711873434229</v>
       </c>
       <c r="AA18" t="n">
-        <v>258.1666780529528</v>
+        <v>64.53221916542076</v>
       </c>
       <c r="AB18" t="n">
-        <v>38.78146255053007</v>
+        <v>61384.63376734158</v>
       </c>
       <c r="AC18" t="n">
-        <v>38272.22152323138</v>
+        <v>2046.151520191294</v>
       </c>
       <c r="AD18" t="n">
-        <v>2046.151520191294</v>
+        <v>12658.50479299686</v>
       </c>
       <c r="AE18" t="n">
-        <v>7603.945177820994</v>
+        <v>5117.0600436519</v>
       </c>
       <c r="AF18" t="n">
-        <v>2979.734986001868</v>
+        <v>462.3308663564537</v>
       </c>
       <c r="AG18" t="n">
-        <v>272.1943194338222</v>
+        <v>1369.332420427132</v>
       </c>
       <c r="AH18" t="n">
-        <v>768.4917379732881</v>
+        <v>64.51541223982728</v>
       </c>
       <c r="AI18" t="n">
-        <v>39.69221820130475</v>
+        <v>6486.391121521841</v>
       </c>
       <c r="AJ18" t="n">
-        <v>3748.226723975156</v>
+        <v>526.844025632947</v>
       </c>
       <c r="AK18" t="n">
-        <v>311.886537635127</v>
+        <v>690.2746071732221</v>
       </c>
       <c r="AL18" t="n">
-        <v>434.6179050919004</v>
+        <v>33.11883277466929</v>
       </c>
       <c r="AM18" t="n">
-        <v>20.15493990390116</v>
+        <v>492.2382695135334</v>
       </c>
       <c r="AN18" t="n">
-        <v>315.0647681562976</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>53.78707834899355</v>
+        <v>89.73843647711342</v>
       </c>
     </row>
     <row r="19">
@@ -2809,85 +2753,82 @@
         <v>173.3227377429808</v>
       </c>
       <c r="O19" t="n">
-        <v>367.1543308102617</v>
+        <v>53967.09693143936</v>
       </c>
       <c r="P19" t="n">
-        <v>35607.27639018886</v>
+        <v>1798.904189199152</v>
       </c>
       <c r="Q19" t="n">
-        <v>1798.904189199152</v>
+        <v>8934.504217952268</v>
       </c>
       <c r="R19" t="n">
-        <v>5712.451569633673</v>
+        <v>3765.961370089912</v>
       </c>
       <c r="S19" t="n">
-        <v>2259.526938434915</v>
+        <v>365.919401860371</v>
       </c>
       <c r="T19" t="n">
-        <v>219.6531702064161</v>
+        <v>1404.877073368273</v>
       </c>
       <c r="U19" t="n">
-        <v>773.7103812579023</v>
+        <v>70.14188119260355</v>
       </c>
       <c r="V19" t="n">
-        <v>41.69280857775821</v>
+        <v>5170.836205574738</v>
       </c>
       <c r="W19" t="n">
-        <v>3033.237319692818</v>
+        <v>436.0533764384986</v>
       </c>
       <c r="X19" t="n">
-        <v>261.3459787841742</v>
+        <v>605.6027904272671</v>
       </c>
       <c r="Y19" t="n">
-        <v>386.1498245997835</v>
+        <v>38.5243077231021</v>
       </c>
       <c r="Z19" t="n">
-        <v>24.02275260845214</v>
+        <v>405.6898362860074</v>
       </c>
       <c r="AA19" t="n">
-        <v>268.9147230932211</v>
+        <v>63.32227346471782</v>
       </c>
       <c r="AB19" t="n">
-        <v>40.35644847436082</v>
+        <v>58391.1398697992</v>
       </c>
       <c r="AC19" t="n">
-        <v>39033.76793173207</v>
+        <v>1946.371703367727</v>
       </c>
       <c r="AD19" t="n">
-        <v>1946.371703367727</v>
+        <v>11646.6568600098</v>
       </c>
       <c r="AE19" t="n">
-        <v>7531.151203839002</v>
+        <v>4729.393952897948</v>
       </c>
       <c r="AF19" t="n">
-        <v>3004.073058289559</v>
+        <v>439.1760619318055</v>
       </c>
       <c r="AG19" t="n">
-        <v>282.1820218377687</v>
+        <v>1310.035325011388</v>
       </c>
       <c r="AH19" t="n">
-        <v>824.8991768699016</v>
+        <v>67.00709458514174</v>
       </c>
       <c r="AI19" t="n">
-        <v>44.30177134091743</v>
+        <v>6039.4312899467</v>
       </c>
       <c r="AJ19" t="n">
-        <v>3828.97223515946</v>
+        <v>506.1802961375005</v>
       </c>
       <c r="AK19" t="n">
-        <v>326.4837931786861</v>
+        <v>695.1108361324357</v>
       </c>
       <c r="AL19" t="n">
-        <v>463.995722763418</v>
+        <v>37.94100016498218</v>
       </c>
       <c r="AM19" t="n">
-        <v>23.89730418087431</v>
+        <v>484.0415227540233</v>
       </c>
       <c r="AN19" t="n">
-        <v>334.1036722790814</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>59.4081573706524</v>
+        <v>91.8755411201531</v>
       </c>
     </row>
     <row r="20">
@@ -2934,85 +2875,82 @@
         <v>159.4293021544343</v>
       </c>
       <c r="O20" t="n">
-        <v>368.0028648431007</v>
+        <v>55229.9969753054</v>
       </c>
       <c r="P20" t="n">
-        <v>35055.71515903106</v>
+        <v>1841.001256869198</v>
       </c>
       <c r="Q20" t="n">
-        <v>1841.001256869198</v>
+        <v>9508.321907598984</v>
       </c>
       <c r="R20" t="n">
-        <v>5691.237847897966</v>
+        <v>3895.124996158569</v>
       </c>
       <c r="S20" t="n">
-        <v>2233.572545527585</v>
+        <v>362.2649436405263</v>
       </c>
       <c r="T20" t="n">
-        <v>211.5325102472231</v>
+        <v>1375.185251349099</v>
       </c>
       <c r="U20" t="n">
-        <v>763.4357650289865</v>
+        <v>60.94297622648214</v>
       </c>
       <c r="V20" t="n">
-        <v>37.57251104665363</v>
+        <v>5270.309343481395</v>
       </c>
       <c r="W20" t="n">
-        <v>2997.008310556572</v>
+        <v>423.2083935772656</v>
       </c>
       <c r="X20" t="n">
-        <v>249.1050212938767</v>
+        <v>589.1273567826039</v>
       </c>
       <c r="Y20" t="n">
-        <v>369.1466846612119</v>
+        <v>30.54921396834247</v>
       </c>
       <c r="Z20" t="n">
-        <v>19.77016205316921</v>
+        <v>393.8573998818462</v>
       </c>
       <c r="AA20" t="n">
-        <v>253.9386448512517</v>
+        <v>63.01739321045403</v>
       </c>
       <c r="AB20" t="n">
-        <v>38.71579590447814</v>
+        <v>59677.15301615789</v>
       </c>
       <c r="AC20" t="n">
-        <v>38322.43063610247</v>
+        <v>1989.237459257037</v>
       </c>
       <c r="AD20" t="n">
-        <v>1989.237459257037</v>
+        <v>11956.26277746057</v>
       </c>
       <c r="AE20" t="n">
-        <v>7407.181329939917</v>
+        <v>4828.651783327561</v>
       </c>
       <c r="AF20" t="n">
-        <v>2915.344169954721</v>
+        <v>434.9475443959967</v>
       </c>
       <c r="AG20" t="n">
-        <v>267.9494361856529</v>
+        <v>1320.645173869503</v>
       </c>
       <c r="AH20" t="n">
-        <v>773.7583707900351</v>
+        <v>64.03586208152532</v>
       </c>
       <c r="AI20" t="n">
-        <v>39.13532159647926</v>
+        <v>6149.299148200013</v>
       </c>
       <c r="AJ20" t="n">
-        <v>3689.102540744756</v>
+        <v>498.9903985429731</v>
       </c>
       <c r="AK20" t="n">
-        <v>307.0847577821321</v>
+        <v>674.2650996660032</v>
       </c>
       <c r="AL20" t="n">
-        <v>436.7464884928365</v>
+        <v>31.4301829973382</v>
       </c>
       <c r="AM20" t="n">
-        <v>20.30378059617681</v>
+        <v>487.4550816950644</v>
       </c>
       <c r="AN20" t="n">
-        <v>319.7678620800817</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>53.88117010701094</v>
+        <v>86.89683834586016</v>
       </c>
     </row>
     <row r="21">
@@ -3059,85 +2997,82 @@
         <v>173.7521404793331</v>
       </c>
       <c r="O21" t="n">
-        <v>353.4411759889446</v>
+        <v>52437.47129660104</v>
       </c>
       <c r="P21" t="n">
-        <v>36572.7065566723</v>
+        <v>1747.914157779665</v>
       </c>
       <c r="Q21" t="n">
-        <v>1747.914157779665</v>
+        <v>8901.898157116437</v>
       </c>
       <c r="R21" t="n">
-        <v>5961.275148219243</v>
+        <v>3620.845066094496</v>
       </c>
       <c r="S21" t="n">
-        <v>2320.958999014021</v>
+        <v>347.5216630740226</v>
       </c>
       <c r="T21" t="n">
-        <v>224.345652201186</v>
+        <v>1379.8730243483</v>
       </c>
       <c r="U21" t="n">
-        <v>802.0657557447197</v>
+        <v>61.78279470858306</v>
       </c>
       <c r="V21" t="n">
-        <v>41.21093294281562</v>
+        <v>5000.721271406523</v>
       </c>
       <c r="W21" t="n">
-        <v>3123.024754758741</v>
+        <v>409.3052645712065</v>
       </c>
       <c r="X21" t="n">
-        <v>265.5565851440016</v>
+        <v>592.1922906951839</v>
       </c>
       <c r="Y21" t="n">
-        <v>399.5587545823985</v>
+        <v>30.89163824070459</v>
       </c>
       <c r="Z21" t="n">
-        <v>20.47552641778105</v>
+        <v>414.9757373747574</v>
       </c>
       <c r="AA21" t="n">
-        <v>284.9894469465036</v>
+        <v>56.11090949246265</v>
       </c>
       <c r="AB21" t="n">
-        <v>37.69213514392113</v>
+        <v>56782.16114647058</v>
       </c>
       <c r="AC21" t="n">
-        <v>39884.52522473615</v>
+        <v>1892.741526952465</v>
       </c>
       <c r="AD21" t="n">
-        <v>1892.741526952465</v>
+        <v>11420.08971718244</v>
       </c>
       <c r="AE21" t="n">
-        <v>7726.858008658359</v>
+        <v>4621.458656788272</v>
       </c>
       <c r="AF21" t="n">
-        <v>3048.976152103384</v>
+        <v>417.4688226953476</v>
       </c>
       <c r="AG21" t="n">
-        <v>279.5441500841972</v>
+        <v>1133.521496972438</v>
       </c>
       <c r="AH21" t="n">
-        <v>763.8514257880424</v>
+        <v>56.69437663387868</v>
       </c>
       <c r="AI21" t="n">
-        <v>39.91313508243485</v>
+        <v>5754.985728154885</v>
       </c>
       <c r="AJ21" t="n">
-        <v>3812.827577891427</v>
+        <v>474.1654948257485</v>
       </c>
       <c r="AK21" t="n">
-        <v>319.4572851666321</v>
+        <v>678.4251588787016</v>
       </c>
       <c r="AL21" t="n">
-        <v>470.6999356044721</v>
+        <v>33.08695928497285</v>
       </c>
       <c r="AM21" t="n">
-        <v>21.81821779329484</v>
+        <v>484.015276695072</v>
       </c>
       <c r="AN21" t="n">
-        <v>345.3930255199384</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>60.44436953036062</v>
+        <v>90.2303114264454</v>
       </c>
     </row>
     <row r="22">
@@ -3184,85 +3119,82 @@
         <v>165.0947804750767</v>
       </c>
       <c r="O22" t="n">
-        <v>360.7325754340407</v>
+        <v>53476.94885254484</v>
       </c>
       <c r="P22" t="n">
-        <v>34950.91339994431</v>
+        <v>1782.564401810376</v>
       </c>
       <c r="Q22" t="n">
-        <v>1782.564401810376</v>
+        <v>9141.017525438667</v>
       </c>
       <c r="R22" t="n">
-        <v>5613.565055283219</v>
+        <v>3766.474634756362</v>
       </c>
       <c r="S22" t="n">
-        <v>2169.14286979194</v>
+        <v>348.3927595695029</v>
       </c>
       <c r="T22" t="n">
-        <v>209.0780897050836</v>
+        <v>1280.939485095968</v>
       </c>
       <c r="U22" t="n">
-        <v>745.7679931062677</v>
+        <v>61.8381271046794</v>
       </c>
       <c r="V22" t="n">
-        <v>37.58581991771414</v>
+        <v>5047.406714636554</v>
       </c>
       <c r="W22" t="n">
-        <v>2914.910862898208</v>
+        <v>410.2272513489914</v>
       </c>
       <c r="X22" t="n">
-        <v>246.6639096227977</v>
+        <v>582.4550113402197</v>
       </c>
       <c r="Y22" t="n">
-        <v>369.6194115093896</v>
+        <v>34.23774404378305</v>
       </c>
       <c r="Z22" t="n">
-        <v>21.27469340000433</v>
+        <v>394.0857859826637</v>
       </c>
       <c r="AA22" t="n">
-        <v>257.8127435919233</v>
+        <v>67.30490380602512</v>
       </c>
       <c r="AB22" t="n">
-        <v>41.70240546673383</v>
+        <v>58058.39935922592</v>
       </c>
       <c r="AC22" t="n">
-        <v>38083.88623564392</v>
+        <v>1935.279580317285</v>
       </c>
       <c r="AD22" t="n">
-        <v>1935.279580317285</v>
+        <v>11666.33601331695</v>
       </c>
       <c r="AE22" t="n">
-        <v>7331.229255747737</v>
+        <v>4581.362733669506</v>
       </c>
       <c r="AF22" t="n">
-        <v>2824.862054843142</v>
+        <v>414.6094895687787</v>
       </c>
       <c r="AG22" t="n">
-        <v>258.5596658367519</v>
+        <v>1146.743745416193</v>
       </c>
       <c r="AH22" t="n">
-        <v>707.9291473760006</v>
+        <v>59.63932222554234</v>
       </c>
       <c r="AI22" t="n">
-        <v>36.62819193724544</v>
+        <v>5728.107432237961</v>
       </c>
       <c r="AJ22" t="n">
-        <v>3532.791202219143</v>
+        <v>474.2482440100918</v>
       </c>
       <c r="AK22" t="n">
-        <v>295.1878577739974</v>
+        <v>663.1524883984324</v>
       </c>
       <c r="AL22" t="n">
-        <v>436.4896096894817</v>
+        <v>34.17663979309292</v>
       </c>
       <c r="AM22" t="n">
-        <v>21.12586195252473</v>
+        <v>470.7800799642937</v>
       </c>
       <c r="AN22" t="n">
-        <v>316.6072412547455</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>54.99539034586259</v>
+        <v>86.14133239947783</v>
       </c>
     </row>
     <row r="23">
@@ -3309,85 +3241,82 @@
         <v>162.7492679486792</v>
       </c>
       <c r="O23" t="n">
-        <v>359.3787163234653</v>
+        <v>54311.97294596794</v>
       </c>
       <c r="P23" t="n">
-        <v>34735.1720574526</v>
+        <v>1810.394060714872</v>
       </c>
       <c r="Q23" t="n">
-        <v>1810.394060714872</v>
+        <v>9684.616651131644</v>
       </c>
       <c r="R23" t="n">
-        <v>5935.238225961053</v>
+        <v>3938.816127454412</v>
       </c>
       <c r="S23" t="n">
-        <v>2309.087804360809</v>
+        <v>359.3957288584962</v>
       </c>
       <c r="T23" t="n">
-        <v>214.6698666324265</v>
+        <v>1352.045858782594</v>
       </c>
       <c r="U23" t="n">
-        <v>772.8506522982027</v>
+        <v>65.97791691631701</v>
       </c>
       <c r="V23" t="n">
-        <v>40.33331032303582</v>
+        <v>5290.865343828335</v>
       </c>
       <c r="W23" t="n">
-        <v>3081.938456659012</v>
+        <v>425.3787662759437</v>
       </c>
       <c r="X23" t="n">
-        <v>255.0031769554624</v>
+        <v>582.0128872482895</v>
       </c>
       <c r="Y23" t="n">
-        <v>363.616584858154</v>
+        <v>33.64276533834615</v>
       </c>
       <c r="Z23" t="n">
-        <v>19.49421664322143</v>
+        <v>386.9677499347715</v>
       </c>
       <c r="AA23" t="n">
-        <v>251.7993544126691</v>
+        <v>71.14293100249944</v>
       </c>
       <c r="AB23" t="n">
-        <v>40.2344206140685</v>
+        <v>56895.19887604429</v>
       </c>
       <c r="AC23" t="n">
-        <v>37555.10052904781</v>
+        <v>1896.505652561577</v>
       </c>
       <c r="AD23" t="n">
-        <v>1896.505652561577</v>
+        <v>11692.63192785301</v>
       </c>
       <c r="AE23" t="n">
-        <v>7536.699786657655</v>
+        <v>4548.849610999438</v>
       </c>
       <c r="AF23" t="n">
-        <v>2906.440372558247</v>
+        <v>408.5726105592501</v>
       </c>
       <c r="AG23" t="n">
-        <v>265.6454353518575</v>
+        <v>1166.122044440594</v>
       </c>
       <c r="AH23" t="n">
-        <v>756.34383434599</v>
+        <v>62.44319126075741</v>
       </c>
       <c r="AI23" t="n">
-        <v>40.68691309248548</v>
+        <v>5714.975798404406</v>
       </c>
       <c r="AJ23" t="n">
-        <v>3662.784206904237</v>
+        <v>471.0190076286132</v>
       </c>
       <c r="AK23" t="n">
-        <v>306.332348444343</v>
+        <v>635.9637636168551</v>
       </c>
       <c r="AL23" t="n">
-        <v>420.1695445748076</v>
+        <v>32.6898641847519</v>
       </c>
       <c r="AM23" t="n">
-        <v>20.35063150500048</v>
+        <v>448.6679550600769</v>
       </c>
       <c r="AN23" t="n">
-        <v>303.5337489900864</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>53.60766037213509</v>
+        <v>84.94800666023589</v>
       </c>
     </row>
     <row r="24">
@@ -3434,85 +3363,82 @@
         <v>160.0725458859483</v>
       </c>
       <c r="O24" t="n">
-        <v>366.9088391407195</v>
+        <v>55116.08080781562</v>
       </c>
       <c r="P24" t="n">
-        <v>34283.79089930148</v>
+        <v>1837.204766018009</v>
       </c>
       <c r="Q24" t="n">
-        <v>1837.204766018009</v>
+        <v>9551.375097649132</v>
       </c>
       <c r="R24" t="n">
-        <v>5768.541652737511</v>
+        <v>3936.860159802456</v>
       </c>
       <c r="S24" t="n">
-        <v>2202.663032804162</v>
+        <v>367.3040573111338</v>
       </c>
       <c r="T24" t="n">
-        <v>206.7716237270147</v>
+        <v>1319.908635794285</v>
       </c>
       <c r="U24" t="n">
-        <v>736.1204463025579</v>
+        <v>70.26389177941039</v>
       </c>
       <c r="V24" t="n">
-        <v>39.00273020811694</v>
+        <v>5256.772813123392</v>
       </c>
       <c r="W24" t="n">
-        <v>2938.783479106719</v>
+        <v>437.5652413249239</v>
       </c>
       <c r="X24" t="n">
-        <v>245.7743539351316</v>
+        <v>594.6666967861781</v>
       </c>
       <c r="Y24" t="n">
-        <v>357.1900542671398</v>
+        <v>34.39440729038914</v>
       </c>
       <c r="Z24" t="n">
-        <v>20.54610622265275</v>
+        <v>403.2799875253388</v>
       </c>
       <c r="AA24" t="n">
-        <v>248.3329295269461</v>
+        <v>66.18224352718518</v>
       </c>
       <c r="AB24" t="n">
-        <v>39.07743203948775</v>
+        <v>59509.58461558884</v>
       </c>
       <c r="AC24" t="n">
-        <v>37058.78775139814</v>
+        <v>1983.65721029614</v>
       </c>
       <c r="AD24" t="n">
-        <v>1983.65721029614</v>
+        <v>12155.02239271398</v>
       </c>
       <c r="AE24" t="n">
-        <v>7364.37058786478</v>
+        <v>4827.338556655185</v>
       </c>
       <c r="AF24" t="n">
-        <v>2841.619833891322</v>
+        <v>438.4299477417406</v>
       </c>
       <c r="AG24" t="n">
-        <v>258.5959485644479</v>
+        <v>1298.960865157404</v>
       </c>
       <c r="AH24" t="n">
-        <v>743.6914394951554</v>
+        <v>65.20039842090566</v>
       </c>
       <c r="AI24" t="n">
-        <v>38.3812494272965</v>
+        <v>6126.298874850999</v>
       </c>
       <c r="AJ24" t="n">
-        <v>3585.311273386477</v>
+        <v>503.6364405715</v>
       </c>
       <c r="AK24" t="n">
-        <v>296.9771979917444</v>
+        <v>677.4561722029597</v>
       </c>
       <c r="AL24" t="n">
-        <v>427.9348633706238</v>
+        <v>34.06257303896006</v>
       </c>
       <c r="AM24" t="n">
-        <v>19.9472985729775</v>
+        <v>487.2040487067295</v>
       </c>
       <c r="AN24" t="n">
-        <v>312.50617006909</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>52.52684275700265</v>
+        <v>86.780248387958</v>
       </c>
     </row>
     <row r="25">
@@ -3559,85 +3485,82 @@
         <v>157.7092180495691</v>
       </c>
       <c r="O25" t="n">
-        <v>372.4656299702932</v>
+        <v>56711.55925124125</v>
       </c>
       <c r="P25" t="n">
-        <v>34376.36388737521</v>
+        <v>1890.385699472744</v>
       </c>
       <c r="Q25" t="n">
-        <v>1890.385699472744</v>
+        <v>9996.341290069806</v>
       </c>
       <c r="R25" t="n">
-        <v>5716.678729383063</v>
+        <v>4063.490191655395</v>
       </c>
       <c r="S25" t="n">
-        <v>2209.507055442646</v>
+        <v>365.3608286078181</v>
       </c>
       <c r="T25" t="n">
-        <v>202.1231871502895</v>
+        <v>1483.628739844703</v>
       </c>
       <c r="U25" t="n">
-        <v>755.3530537185468</v>
+        <v>66.01240007596597</v>
       </c>
       <c r="V25" t="n">
-        <v>36.02446959308127</v>
+        <v>5547.117002239499</v>
       </c>
       <c r="W25" t="n">
-        <v>2964.860109161193</v>
+        <v>431.3712779594061</v>
       </c>
       <c r="X25" t="n">
-        <v>238.1476567433708</v>
+        <v>584.0560871982789</v>
       </c>
       <c r="Y25" t="n">
-        <v>354.7276379644229</v>
+        <v>33.2765896373934</v>
       </c>
       <c r="Z25" t="n">
-        <v>19.78343611978432</v>
+        <v>400.8441839453104</v>
       </c>
       <c r="AA25" t="n">
-        <v>248.5447132980592</v>
+        <v>69.56217765055868</v>
       </c>
       <c r="AB25" t="n">
-        <v>39.93250003824892</v>
+        <v>60659.51295628431</v>
       </c>
       <c r="AC25" t="n">
-        <v>37220.9225590828</v>
+        <v>2021.986605562281</v>
       </c>
       <c r="AD25" t="n">
-        <v>2021.986605562281</v>
+        <v>12438.69440588221</v>
       </c>
       <c r="AE25" t="n">
-        <v>7288.273932152942</v>
+        <v>4847.624159034784</v>
       </c>
       <c r="AF25" t="n">
-        <v>2858.411814656025</v>
+        <v>431.3909191127245</v>
       </c>
       <c r="AG25" t="n">
-        <v>255.861376928971</v>
+        <v>1338.937497099476</v>
       </c>
       <c r="AH25" t="n">
-        <v>753.2206975303025</v>
+        <v>60.53775805026687</v>
       </c>
       <c r="AI25" t="n">
-        <v>37.0568743125226</v>
+        <v>6186.570345465871</v>
       </c>
       <c r="AJ25" t="n">
-        <v>3611.632512186327</v>
+        <v>491.9290436406391</v>
       </c>
       <c r="AK25" t="n">
-        <v>292.9182512414936</v>
+        <v>664.7124751029968</v>
       </c>
       <c r="AL25" t="n">
-        <v>415.7916060427766</v>
+        <v>31.05543684585303</v>
       </c>
       <c r="AM25" t="n">
-        <v>20.21704359023069</v>
+        <v>480.8212060539443</v>
       </c>
       <c r="AN25" t="n">
-        <v>304.8724294759931</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>52.10185557672214</v>
+        <v>86.27834841620431</v>
       </c>
     </row>
     <row r="26">
@@ -3684,85 +3607,82 @@
         <v>162.4127927150643</v>
       </c>
       <c r="O26" t="n">
-        <v>366.7073796246036</v>
+        <v>54842.31339310331</v>
       </c>
       <c r="P26" t="n">
-        <v>34491.89404041076</v>
+        <v>1828.075971989972</v>
       </c>
       <c r="Q26" t="n">
-        <v>1828.075971989972</v>
+        <v>9464.301328482801</v>
       </c>
       <c r="R26" t="n">
-        <v>5660.22222882704</v>
+        <v>3922.154194107373</v>
       </c>
       <c r="S26" t="n">
-        <v>2196.685261891828</v>
+        <v>363.0810598420042</v>
       </c>
       <c r="T26" t="n">
-        <v>208.439110744214</v>
+        <v>1465.915064857138</v>
       </c>
       <c r="U26" t="n">
-        <v>752.0261833854132</v>
+        <v>69.55446515893277</v>
       </c>
       <c r="V26" t="n">
-        <v>38.75694079727863</v>
+        <v>5388.067473011795</v>
       </c>
       <c r="W26" t="n">
-        <v>2948.711445277242</v>
+        <v>432.6391974224165</v>
       </c>
       <c r="X26" t="n">
-        <v>247.1960515414926</v>
+        <v>582.4633305040232</v>
       </c>
       <c r="Y26" t="n">
-        <v>357.7243722973756</v>
+        <v>31.34532877350848</v>
       </c>
       <c r="Z26" t="n">
-        <v>18.68882314418169</v>
+        <v>397.0416703445759</v>
       </c>
       <c r="AA26" t="n">
-        <v>254.2030561789218</v>
+        <v>65.46904576804585</v>
       </c>
       <c r="AB26" t="n">
-        <v>38.67784446831818</v>
+        <v>60312.05107823158</v>
       </c>
       <c r="AC26" t="n">
-        <v>37789.27166939471</v>
+        <v>2010.399880428268</v>
       </c>
       <c r="AD26" t="n">
-        <v>2010.399880428268</v>
+        <v>12294.52641647139</v>
       </c>
       <c r="AE26" t="n">
-        <v>7410.21899821342</v>
+        <v>4941.160621653422</v>
       </c>
       <c r="AF26" t="n">
-        <v>2877.787176887072</v>
+        <v>444.2436031326321</v>
       </c>
       <c r="AG26" t="n">
-        <v>262.796241614513</v>
+        <v>1386.272600422287</v>
       </c>
       <c r="AH26" t="n">
-        <v>777.740370258901</v>
+        <v>72.34140672952742</v>
       </c>
       <c r="AI26" t="n">
-        <v>42.03053104894176</v>
+        <v>6327.436409360347</v>
       </c>
       <c r="AJ26" t="n">
-        <v>3655.527547145973</v>
+        <v>516.584515368749</v>
       </c>
       <c r="AK26" t="n">
-        <v>304.8267726634547</v>
+        <v>671.5722942565727</v>
       </c>
       <c r="AL26" t="n">
-        <v>427.7708117553152</v>
+        <v>34.02432690155062</v>
       </c>
       <c r="AM26" t="n">
-        <v>20.43382873470797</v>
+        <v>462.1660665044771</v>
       </c>
       <c r="AN26" t="n">
-        <v>308.0841372284913</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>54.03299106017465</v>
+        <v>90.92555502321841</v>
       </c>
     </row>
     <row r="27">
@@ -3809,85 +3729,82 @@
         <v>166.2306397340565</v>
       </c>
       <c r="O27" t="n">
-        <v>372.6117771811114</v>
+        <v>55150.27671442983</v>
       </c>
       <c r="P27" t="n">
-        <v>36060.62239181644</v>
+        <v>1838.3394440645</v>
       </c>
       <c r="Q27" t="n">
-        <v>1838.3394440645</v>
+        <v>9577.332474617457</v>
       </c>
       <c r="R27" t="n">
-        <v>5992.231554781231</v>
+        <v>3979.584397268873</v>
       </c>
       <c r="S27" t="n">
-        <v>2370.0718036651</v>
+        <v>368.6859182886352</v>
       </c>
       <c r="T27" t="n">
-        <v>221.7507229815823</v>
+        <v>1583.841541273503</v>
       </c>
       <c r="U27" t="n">
-        <v>891.9565087903311</v>
+        <v>72.20150013614598</v>
       </c>
       <c r="V27" t="n">
-        <v>44.2381396017095</v>
+        <v>5563.428637242908</v>
       </c>
       <c r="W27" t="n">
-        <v>3262.028312455431</v>
+        <v>440.8855700895971</v>
       </c>
       <c r="X27" t="n">
-        <v>265.9888625832918</v>
+        <v>590.8673559284064</v>
       </c>
       <c r="Y27" t="n">
-        <v>380.8744151073623</v>
+        <v>30.55735629702144</v>
       </c>
       <c r="Z27" t="n">
-        <v>20.56279648845343</v>
+        <v>399.9768748384504</v>
       </c>
       <c r="AA27" t="n">
-        <v>267.720365756872</v>
+        <v>62.35356854132213</v>
       </c>
       <c r="AB27" t="n">
-        <v>40.60693933837553</v>
+        <v>59359.99498764302</v>
       </c>
       <c r="AC27" t="n">
-        <v>39203.41974134579</v>
+        <v>1978.663337274952</v>
       </c>
       <c r="AD27" t="n">
-        <v>1978.663337274952</v>
+        <v>12054.92094195791</v>
       </c>
       <c r="AE27" t="n">
-        <v>7770.821916035537</v>
+        <v>4890.376333432375</v>
       </c>
       <c r="AF27" t="n">
-        <v>3075.284215621841</v>
+        <v>432.2575936857402</v>
       </c>
       <c r="AG27" t="n">
-        <v>277.264514715812</v>
+        <v>1395.076083820329</v>
       </c>
       <c r="AH27" t="n">
-        <v>849.7991546661018</v>
+        <v>64.26410559074409</v>
       </c>
       <c r="AI27" t="n">
-        <v>42.08148417158777</v>
+        <v>6285.450127450444</v>
       </c>
       <c r="AJ27" t="n">
-        <v>3925.083370287943</v>
+        <v>496.514816609145</v>
       </c>
       <c r="AK27" t="n">
-        <v>319.3459988873998</v>
+        <v>658.8633746149401</v>
       </c>
       <c r="AL27" t="n">
-        <v>441.4079970061092</v>
+        <v>30.34930844774179</v>
       </c>
       <c r="AM27" t="n">
-        <v>20.94325145674507</v>
+        <v>475.803963306464</v>
       </c>
       <c r="AN27" t="n">
-        <v>322.5679630847378</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>56.02504919903662</v>
+        <v>84.9880699045831</v>
       </c>
     </row>
     <row r="28">
@@ -3934,85 +3851,82 @@
         <v>158.9271797817456</v>
       </c>
       <c r="O28" t="n">
-        <v>352.7828060575143</v>
+        <v>51943.89167296448</v>
       </c>
       <c r="P28" t="n">
-        <v>34737.60356217017</v>
+        <v>1731.456239966056</v>
       </c>
       <c r="Q28" t="n">
-        <v>1731.456239966056</v>
+        <v>8990.551460359731</v>
       </c>
       <c r="R28" t="n">
-        <v>5755.101093836914</v>
+        <v>3754.548435371235</v>
       </c>
       <c r="S28" t="n">
-        <v>2252.523523343037</v>
+        <v>345.2135700550124</v>
       </c>
       <c r="T28" t="n">
-        <v>206.8993991085498</v>
+        <v>1343.641270711931</v>
       </c>
       <c r="U28" t="n">
-        <v>742.9283151755474</v>
+        <v>64.80423499668083</v>
       </c>
       <c r="V28" t="n">
-        <v>37.68774278184559</v>
+        <v>5098.18600887413</v>
       </c>
       <c r="W28" t="n">
-        <v>2995.451838518584</v>
+        <v>410.0117058336539</v>
       </c>
       <c r="X28" t="n">
-        <v>244.5871418903954</v>
+        <v>554.0538195589832</v>
       </c>
       <c r="Y28" t="n">
-        <v>359.2260172757091</v>
+        <v>32.74579931212874</v>
       </c>
       <c r="Z28" t="n">
-        <v>19.68377596210933</v>
+        <v>376.1333885664737</v>
       </c>
       <c r="AA28" t="n">
-        <v>252.9707588464507</v>
+        <v>62.59585836103447</v>
       </c>
       <c r="AB28" t="n">
-        <v>38.68450586390583</v>
+        <v>56116.02084486368</v>
       </c>
       <c r="AC28" t="n">
-        <v>37537.04754598149</v>
+        <v>1870.533198485423</v>
       </c>
       <c r="AD28" t="n">
-        <v>1870.533198485423</v>
+        <v>11136.12801218265</v>
       </c>
       <c r="AE28" t="n">
-        <v>7290.635024892756</v>
+        <v>4517.329187928985</v>
       </c>
       <c r="AF28" t="n">
-        <v>2890.863996333177</v>
+        <v>411.2569765127822</v>
       </c>
       <c r="AG28" t="n">
-        <v>262.2687745421673</v>
+        <v>1240.937641899705</v>
       </c>
       <c r="AH28" t="n">
-        <v>759.890096104504</v>
+        <v>66.27515123909335</v>
       </c>
       <c r="AI28" t="n">
-        <v>41.11458057908288</v>
+        <v>5758.258669464725</v>
       </c>
       <c r="AJ28" t="n">
-        <v>3650.754092437681</v>
+        <v>477.5342266099493</v>
       </c>
       <c r="AK28" t="n">
-        <v>303.3833551212502</v>
+        <v>625.8964062129178</v>
       </c>
       <c r="AL28" t="n">
-        <v>421.6541682550072</v>
+        <v>34.37816735947744</v>
       </c>
       <c r="AM28" t="n">
-        <v>21.05552823965651</v>
+        <v>450.5000558141303</v>
       </c>
       <c r="AN28" t="n">
-        <v>311.2847043252661</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>52.40058656618726</v>
+        <v>84.22126901908447</v>
       </c>
     </row>
     <row r="29">
@@ -4059,85 +3973,82 @@
         <v>167.4551144632921</v>
       </c>
       <c r="O29" t="n">
-        <v>371.499752712483</v>
+        <v>55148.03501413923</v>
       </c>
       <c r="P29" t="n">
-        <v>34625.31639242168</v>
+        <v>1838.269584742374</v>
       </c>
       <c r="Q29" t="n">
-        <v>1838.269584742374</v>
+        <v>9751.570479089214</v>
       </c>
       <c r="R29" t="n">
-        <v>5729.744463852395</v>
+        <v>4042.34503141486</v>
       </c>
       <c r="S29" t="n">
-        <v>2310.863594658657</v>
+        <v>379.7461951482202</v>
       </c>
       <c r="T29" t="n">
-        <v>218.3502694755842</v>
+        <v>1457.917804890753</v>
       </c>
       <c r="U29" t="n">
-        <v>809.1756265713061</v>
+        <v>70.84327166613733</v>
       </c>
       <c r="V29" t="n">
-        <v>42.22612254526456</v>
+        <v>5500.258259470601</v>
       </c>
       <c r="W29" t="n">
-        <v>3120.039221229963</v>
+        <v>450.5890446891537</v>
       </c>
       <c r="X29" t="n">
-        <v>260.5763920208487</v>
+        <v>591.1344007325804</v>
       </c>
       <c r="Y29" t="n">
-        <v>360.2687841888509</v>
+        <v>38.24460227743608</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.16939555558739</v>
+        <v>401.4992595552845</v>
       </c>
       <c r="AA29" t="n">
-        <v>251.9130811712176</v>
+        <v>73.24186351772683</v>
       </c>
       <c r="AB29" t="n">
-        <v>42.31213148871435</v>
+        <v>57915.7147199924</v>
       </c>
       <c r="AC29" t="n">
-        <v>37449.14684249907</v>
+        <v>1930.5290871905</v>
       </c>
       <c r="AD29" t="n">
-        <v>1930.5290871905</v>
+        <v>11821.45152344575</v>
       </c>
       <c r="AE29" t="n">
-        <v>7303.16474362766</v>
+        <v>4793.682880996617</v>
       </c>
       <c r="AF29" t="n">
-        <v>2940.133102152789</v>
+        <v>433.6812961356721</v>
       </c>
       <c r="AG29" t="n">
-        <v>269.7210170555963</v>
+        <v>1297.99327007718</v>
       </c>
       <c r="AH29" t="n">
-        <v>804.7396117014257</v>
+        <v>67.92627289686364</v>
       </c>
       <c r="AI29" t="n">
-        <v>42.99746520322245</v>
+        <v>6091.681074962393</v>
       </c>
       <c r="AJ29" t="n">
-        <v>3744.872713854214</v>
+        <v>501.6039725575891</v>
       </c>
       <c r="AK29" t="n">
-        <v>312.7184822588188</v>
+        <v>648.6699555359814</v>
       </c>
       <c r="AL29" t="n">
-        <v>425.4248088518581</v>
+        <v>32.34951230029375</v>
       </c>
       <c r="AM29" t="n">
-        <v>19.85487866948122</v>
+        <v>460.2074515692481</v>
       </c>
       <c r="AN29" t="n">
-        <v>309.8778370520926</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>53.15131534805784</v>
+        <v>85.08898969857195</v>
       </c>
     </row>
     <row r="30">
@@ -4184,85 +4095,82 @@
         <v>163.289168119794</v>
       </c>
       <c r="O30" t="n">
-        <v>377.8318774000486</v>
+        <v>56264.48707331374</v>
       </c>
       <c r="P30" t="n">
-        <v>33953.18376442543</v>
+        <v>1875.48730541035</v>
       </c>
       <c r="Q30" t="n">
-        <v>1875.48730541035</v>
+        <v>9761.739459423548</v>
       </c>
       <c r="R30" t="n">
-        <v>5635.98839860345</v>
+        <v>4220.427412506</v>
       </c>
       <c r="S30" t="n">
-        <v>2296.396739181569</v>
+        <v>395.8916192671504</v>
       </c>
       <c r="T30" t="n">
-        <v>218.6491257355486</v>
+        <v>1675.350013537831</v>
       </c>
       <c r="U30" t="n">
-        <v>853.7461768229116</v>
+        <v>78.01189600976035</v>
       </c>
       <c r="V30" t="n">
-        <v>42.59537609791633</v>
+        <v>5895.778091360171</v>
       </c>
       <c r="W30" t="n">
-        <v>3150.14291600448</v>
+        <v>473.9065132257767</v>
       </c>
       <c r="X30" t="n">
-        <v>261.2445018334649</v>
+        <v>608.2870419187706</v>
       </c>
       <c r="Y30" t="n">
-        <v>361.331363798188</v>
+        <v>34.73394071119843</v>
       </c>
       <c r="Z30" t="n">
-        <v>19.79664886615405</v>
+        <v>403.2793510640037</v>
       </c>
       <c r="AA30" t="n">
-        <v>249.150446328976</v>
+        <v>68.04062231199703</v>
       </c>
       <c r="AB30" t="n">
-        <v>37.87520867757895</v>
+        <v>60692.59882863067</v>
       </c>
       <c r="AC30" t="n">
-        <v>36980.52209431212</v>
+        <v>2023.085837983605</v>
       </c>
       <c r="AD30" t="n">
-        <v>2023.085837983605</v>
+        <v>12307.66804036851</v>
       </c>
       <c r="AE30" t="n">
-        <v>7327.861688186491</v>
+        <v>5255.606340930925</v>
       </c>
       <c r="AF30" t="n">
-        <v>3017.721246368983</v>
+        <v>466.6241084444162</v>
       </c>
       <c r="AG30" t="n">
-        <v>270.2545247274741</v>
+        <v>1484.608369638671</v>
       </c>
       <c r="AH30" t="n">
-        <v>810.7638534833052</v>
+        <v>75.07975143271146</v>
       </c>
       <c r="AI30" t="n">
-        <v>43.39481750697215</v>
+        <v>6740.21563037151</v>
       </c>
       <c r="AJ30" t="n">
-        <v>3828.485099852289</v>
+        <v>541.701311995204</v>
       </c>
       <c r="AK30" t="n">
-        <v>313.6493422344462</v>
+        <v>688.228781417065</v>
       </c>
       <c r="AL30" t="n">
-        <v>422.2895634830795</v>
+        <v>36.73641232785499</v>
       </c>
       <c r="AM30" t="n">
-        <v>20.71482610679128</v>
+        <v>481.4425340594032</v>
       </c>
       <c r="AN30" t="n">
-        <v>301.6526957877787</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>54.66267985889385</v>
+        <v>95.1644402287977</v>
       </c>
     </row>
     <row r="31">
@@ -4309,85 +4217,82 @@
         <v>167.6208654425502</v>
       </c>
       <c r="O31" t="n">
-        <v>374.6499503418564</v>
+        <v>56558.02595402287</v>
       </c>
       <c r="P31" t="n">
-        <v>34297.95780473347</v>
+        <v>1885.263452014273</v>
       </c>
       <c r="Q31" t="n">
-        <v>1885.263452014273</v>
+        <v>9917.676548902165</v>
       </c>
       <c r="R31" t="n">
-        <v>5788.644846555388</v>
+        <v>4291.470880234368</v>
       </c>
       <c r="S31" t="n">
-        <v>2376.947725998592</v>
+        <v>386.4747066387757</v>
       </c>
       <c r="T31" t="n">
-        <v>220.5498043149325</v>
+        <v>1465.567833748297</v>
       </c>
       <c r="U31" t="n">
-        <v>798.316751891794</v>
+        <v>73.74444743983257</v>
       </c>
       <c r="V31" t="n">
-        <v>41.9742268386176</v>
+        <v>5757.04027817829</v>
       </c>
       <c r="W31" t="n">
-        <v>3175.264477890386</v>
+        <v>460.2214812738569</v>
       </c>
       <c r="X31" t="n">
-        <v>262.5240311535501</v>
+        <v>593.1617542139807</v>
       </c>
       <c r="Y31" t="n">
-        <v>356.4725570650177</v>
+        <v>35.69898567000409</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.13738638120358</v>
+        <v>418.4836126278643</v>
       </c>
       <c r="AA31" t="n">
-        <v>255.5088282329166</v>
+        <v>72.98014208720251</v>
       </c>
       <c r="AB31" t="n">
-        <v>42.13050166959991</v>
+        <v>59291.96997761321</v>
       </c>
       <c r="AC31" t="n">
-        <v>36968.55203316225</v>
+        <v>1976.399768831604</v>
       </c>
       <c r="AD31" t="n">
-        <v>1976.399768831604</v>
+        <v>12086.13654992205</v>
       </c>
       <c r="AE31" t="n">
-        <v>7332.254109331506</v>
+        <v>5004.089730386961</v>
       </c>
       <c r="AF31" t="n">
-        <v>2984.234910182495</v>
+        <v>449.6610900023938</v>
       </c>
       <c r="AG31" t="n">
-        <v>271.2888043206343</v>
+        <v>1349.830007040789</v>
       </c>
       <c r="AH31" t="n">
-        <v>798.1091306878453</v>
+        <v>70.60064051122239</v>
       </c>
       <c r="AI31" t="n">
-        <v>42.93878837004885</v>
+        <v>6353.915553351188</v>
       </c>
       <c r="AJ31" t="n">
-        <v>3782.34404087034</v>
+        <v>520.2675198090828</v>
       </c>
       <c r="AK31" t="n">
-        <v>314.2275926906832</v>
+        <v>672.5246443354187</v>
       </c>
       <c r="AL31" t="n">
-        <v>424.6972811178913</v>
+        <v>34.30899791901388</v>
       </c>
       <c r="AM31" t="n">
-        <v>20.41503961171753</v>
+        <v>476.6155685340941</v>
       </c>
       <c r="AN31" t="n">
-        <v>306.5089630386</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>52.65239620813102</v>
+        <v>88.34011181678849</v>
       </c>
     </row>
     <row r="32">
@@ -4434,85 +4339,82 @@
         <v>153.7989837635003</v>
       </c>
       <c r="O32" t="n">
-        <v>371.1505678646251</v>
+        <v>54615.65609424251</v>
       </c>
       <c r="P32" t="n">
-        <v>33647.67465675641</v>
+        <v>1820.519662765219</v>
       </c>
       <c r="Q32" t="n">
-        <v>1820.519662765219</v>
+        <v>9228.817867424661</v>
       </c>
       <c r="R32" t="n">
-        <v>5409.505250799888</v>
+        <v>3804.502758538909</v>
       </c>
       <c r="S32" t="n">
-        <v>2110.411872743726</v>
+        <v>357.7297318466383</v>
       </c>
       <c r="T32" t="n">
-        <v>200.3209317601283</v>
+        <v>1506.952900137216</v>
       </c>
       <c r="U32" t="n">
-        <v>780.0845206329564</v>
+        <v>71.14981295112361</v>
       </c>
       <c r="V32" t="n">
-        <v>40.80293931588757</v>
+        <v>5311.455104006582</v>
       </c>
       <c r="W32" t="n">
-        <v>2890.496393376683</v>
+        <v>428.8767795936395</v>
       </c>
       <c r="X32" t="n">
-        <v>241.1238710760159</v>
+        <v>574.4066340963778</v>
       </c>
       <c r="Y32" t="n">
-        <v>342.7106867705349</v>
+        <v>30.2433796470084</v>
       </c>
       <c r="Z32" t="n">
-        <v>17.82262625908851</v>
+        <v>388.6871494105627</v>
       </c>
       <c r="AA32" t="n">
-        <v>239.2230610085975</v>
+        <v>62.02345930621459</v>
       </c>
       <c r="AB32" t="n">
-        <v>36.64555447810345</v>
+        <v>58863.60753830612</v>
       </c>
       <c r="AC32" t="n">
-        <v>36492.66603275131</v>
+        <v>1962.119614669274</v>
       </c>
       <c r="AD32" t="n">
-        <v>1962.119614669274</v>
+        <v>11741.40279672591</v>
       </c>
       <c r="AE32" t="n">
-        <v>6950.506751104946</v>
+        <v>4773.508293285683</v>
       </c>
       <c r="AF32" t="n">
-        <v>2735.904009020779</v>
+        <v>426.9368273661394</v>
       </c>
       <c r="AG32" t="n">
-        <v>249.0575233235444</v>
+        <v>1286.628863046455</v>
       </c>
       <c r="AH32" t="n">
-        <v>710.3201243380317</v>
+        <v>66.39770308609585</v>
       </c>
       <c r="AI32" t="n">
-        <v>37.68762370255807</v>
+        <v>6060.137549769702</v>
       </c>
       <c r="AJ32" t="n">
-        <v>3446.224133358811</v>
+        <v>493.3349323463964</v>
       </c>
       <c r="AK32" t="n">
-        <v>286.7451470261024</v>
+        <v>651.4739561679895</v>
       </c>
       <c r="AL32" t="n">
-        <v>405.0249650731608</v>
+        <v>33.74372253925625</v>
       </c>
       <c r="AM32" t="n">
-        <v>18.44912730533472</v>
+        <v>468.477948705468</v>
       </c>
       <c r="AN32" t="n">
-        <v>295.4045969191957</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>49.67086911164442</v>
+        <v>84.13113295582818</v>
       </c>
     </row>
     <row r="33">
@@ -4559,85 +4461,82 @@
         <v>155.4344267012407</v>
       </c>
       <c r="O33" t="n">
-        <v>372.9788377760134</v>
+        <v>53056.98988818988</v>
       </c>
       <c r="P33" t="n">
-        <v>34845.04470695545</v>
+        <v>1768.56571975303</v>
       </c>
       <c r="Q33" t="n">
-        <v>1768.56571975303</v>
+        <v>8823.865106503983</v>
       </c>
       <c r="R33" t="n">
-        <v>5538.890548678342</v>
+        <v>3726.434470157985</v>
       </c>
       <c r="S33" t="n">
-        <v>2186.498745637</v>
+        <v>352.4190546934232</v>
       </c>
       <c r="T33" t="n">
-        <v>211.4193068984661</v>
+        <v>1488.000203882395</v>
       </c>
       <c r="U33" t="n">
-        <v>776.645759245391</v>
+        <v>68.66784140251535</v>
       </c>
       <c r="V33" t="n">
-        <v>39.75769598292781</v>
+        <v>5214.433470120772</v>
       </c>
       <c r="W33" t="n">
-        <v>2963.144504882391</v>
+        <v>421.0911211140571</v>
       </c>
       <c r="X33" t="n">
-        <v>251.1770028813939</v>
+        <v>543.7395807703401</v>
       </c>
       <c r="Y33" t="n">
-        <v>353.1714188750774</v>
+        <v>31.09172182822464</v>
       </c>
       <c r="Z33" t="n">
-        <v>18.5561085191478</v>
+        <v>372.624258069423</v>
       </c>
       <c r="AA33" t="n">
-        <v>249.7361886592577</v>
+        <v>63.656904103725</v>
       </c>
       <c r="AB33" t="n">
-        <v>39.39435986730581</v>
+        <v>57777.78861655451</v>
       </c>
       <c r="AC33" t="n">
-        <v>38084.57953475575</v>
+        <v>1925.926258900759</v>
       </c>
       <c r="AD33" t="n">
-        <v>1925.926258900759</v>
+        <v>11177.15956747665</v>
       </c>
       <c r="AE33" t="n">
-        <v>7154.342332957368</v>
+        <v>4481.939154048794</v>
       </c>
       <c r="AF33" t="n">
-        <v>2757.993590180656</v>
+        <v>402.2567341559469</v>
       </c>
       <c r="AG33" t="n">
-        <v>252.5986542843374</v>
+        <v>1295.864105684108</v>
       </c>
       <c r="AH33" t="n">
-        <v>751.418009833875</v>
+        <v>60.80253920631295</v>
       </c>
       <c r="AI33" t="n">
-        <v>38.2491061492472</v>
+        <v>5777.804128670563</v>
       </c>
       <c r="AJ33" t="n">
-        <v>3509.411600014531</v>
+        <v>463.0568683043099</v>
       </c>
       <c r="AK33" t="n">
-        <v>290.8477604335846</v>
+        <v>627.664631807939</v>
       </c>
       <c r="AL33" t="n">
-        <v>417.7066496755351</v>
+        <v>29.16438636388837</v>
       </c>
       <c r="AM33" t="n">
-        <v>17.80731684904537</v>
+        <v>458.1516664149181</v>
       </c>
       <c r="AN33" t="n">
-        <v>312.4506160968614</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>50.68586681077385</v>
+        <v>80.80112489307565</v>
       </c>
     </row>
     <row r="34">
@@ -4684,85 +4583,82 @@
         <v>165.9950033443488</v>
       </c>
       <c r="O34" t="n">
-        <v>378.7833777053663</v>
+        <v>56128.38927152976</v>
       </c>
       <c r="P34" t="n">
-        <v>36845.83764267564</v>
+        <v>1870.946393559793</v>
       </c>
       <c r="Q34" t="n">
-        <v>1870.946393559793</v>
+        <v>9722.041062275945</v>
       </c>
       <c r="R34" t="n">
-        <v>6011.691257825792</v>
+        <v>4056.333504886512</v>
       </c>
       <c r="S34" t="n">
-        <v>2355.713273642033</v>
+        <v>378.5957608215421</v>
       </c>
       <c r="T34" t="n">
-        <v>222.95344466545</v>
+        <v>1512.889665875417</v>
       </c>
       <c r="U34" t="n">
-        <v>809.4425774528737</v>
+        <v>72.94902347282923</v>
       </c>
       <c r="V34" t="n">
-        <v>41.40844894592341</v>
+        <v>5569.224619710099</v>
       </c>
       <c r="W34" t="n">
-        <v>3165.155851094906</v>
+        <v>451.5388249121877</v>
       </c>
       <c r="X34" t="n">
-        <v>264.3618936113734</v>
+        <v>578.2984290387963</v>
       </c>
       <c r="Y34" t="n">
-        <v>374.1397563250565</v>
+        <v>32.88572379832952</v>
       </c>
       <c r="Z34" t="n">
-        <v>20.02304728441964</v>
+        <v>398.961376704378</v>
       </c>
       <c r="AA34" t="n">
-        <v>267.7283548975396</v>
+        <v>65.90703378956009</v>
       </c>
       <c r="AB34" t="n">
-        <v>40.63195335502597</v>
+        <v>60146.92875225559</v>
       </c>
       <c r="AC34" t="n">
-        <v>40077.67112026247</v>
+        <v>2004.896348990945</v>
       </c>
       <c r="AD34" t="n">
-        <v>2004.896348990945</v>
+        <v>12176.97947104075</v>
       </c>
       <c r="AE34" t="n">
-        <v>7725.310797406293</v>
+        <v>4871.17918785384</v>
       </c>
       <c r="AF34" t="n">
-        <v>3062.180543076413</v>
+        <v>430.7047462783586</v>
       </c>
       <c r="AG34" t="n">
-        <v>274.4663533993154</v>
+        <v>1243.473465931799</v>
       </c>
       <c r="AH34" t="n">
-        <v>778.8072896721426</v>
+        <v>64.80012074625064</v>
       </c>
       <c r="AI34" t="n">
-        <v>42.60942902714005</v>
+        <v>6114.655314789648</v>
       </c>
       <c r="AJ34" t="n">
-        <v>3840.987832748556</v>
+        <v>495.5071248930755</v>
       </c>
       <c r="AK34" t="n">
-        <v>317.0757824264554</v>
+        <v>665.8495665464773</v>
       </c>
       <c r="AL34" t="n">
-        <v>447.3602416341121</v>
+        <v>33.71852434518716</v>
       </c>
       <c r="AM34" t="n">
-        <v>20.44602812328275</v>
+        <v>476.9080585694843</v>
       </c>
       <c r="AN34" t="n">
-        <v>324.3779591981996</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>56.21577663758399</v>
+        <v>88.46768418439503</v>
       </c>
     </row>
     <row r="35">
@@ -4809,85 +4705,82 @@
         <v>156.8253720880087</v>
       </c>
       <c r="O35" t="n">
-        <v>380.3672436603753</v>
+        <v>57190.81668008816</v>
       </c>
       <c r="P35" t="n">
-        <v>35695.64958856185</v>
+        <v>1906.359952415152</v>
       </c>
       <c r="Q35" t="n">
-        <v>1906.359952415152</v>
+        <v>9939.992747924654</v>
       </c>
       <c r="R35" t="n">
-        <v>5816.926887012605</v>
+        <v>4056.605150803068</v>
       </c>
       <c r="S35" t="n">
-        <v>2283.445383334425</v>
+        <v>373.7333078896987</v>
       </c>
       <c r="T35" t="n">
-        <v>212.1125192517789</v>
+        <v>1359.355194742113</v>
       </c>
       <c r="U35" t="n">
-        <v>728.5777516392965</v>
+        <v>67.92545307693192</v>
       </c>
       <c r="V35" t="n">
-        <v>37.54254557814669</v>
+        <v>5415.963028690084</v>
       </c>
       <c r="W35" t="n">
-        <v>3012.023134973721</v>
+        <v>441.6573743499976</v>
       </c>
       <c r="X35" t="n">
-        <v>249.6550648299256</v>
+        <v>595.481558278979</v>
       </c>
       <c r="Y35" t="n">
-        <v>362.7681676983565</v>
+        <v>30.08114571982695</v>
       </c>
       <c r="Z35" t="n">
-        <v>18.46119649006135</v>
+        <v>411.4698646048728</v>
       </c>
       <c r="AA35" t="n">
-        <v>259.5024971611941</v>
+        <v>68.92859235951131</v>
       </c>
       <c r="AB35" t="n">
-        <v>39.20268322290722</v>
+        <v>61206.96803083622</v>
       </c>
       <c r="AC35" t="n">
-        <v>39017.90694520894</v>
+        <v>2040.232192201912</v>
       </c>
       <c r="AD35" t="n">
-        <v>2040.232192201912</v>
+        <v>12443.63235298058</v>
       </c>
       <c r="AE35" t="n">
-        <v>7646.445765505023</v>
+        <v>5003.905244435077</v>
       </c>
       <c r="AF35" t="n">
-        <v>2948.919667679143</v>
+        <v>429.9314277956366</v>
       </c>
       <c r="AG35" t="n">
-        <v>260.402983034826</v>
+        <v>1195.619617631667</v>
       </c>
       <c r="AH35" t="n">
-        <v>708.4938697908218</v>
+        <v>60.05216773816811</v>
       </c>
       <c r="AI35" t="n">
-        <v>37.96548340588609</v>
+        <v>6199.526561248838</v>
       </c>
       <c r="AJ35" t="n">
-        <v>3657.413537469965</v>
+        <v>489.9832986931416</v>
       </c>
       <c r="AK35" t="n">
-        <v>298.3684664407122</v>
+        <v>680.0708035614769</v>
       </c>
       <c r="AL35" t="n">
-        <v>439.1460492006689</v>
+        <v>31.53537014914874</v>
       </c>
       <c r="AM35" t="n">
-        <v>19.97888219206155</v>
+        <v>489.8987648160564</v>
       </c>
       <c r="AN35" t="n">
-        <v>320.0392397663261</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>52.23045597357383</v>
+        <v>85.81809935134235</v>
       </c>
     </row>
     <row r="36">
@@ -4934,85 +4827,82 @@
         <v>160.2360875770341</v>
       </c>
       <c r="O36" t="n">
-        <v>373.5036315063885</v>
+        <v>55011.31875498081</v>
       </c>
       <c r="P36" t="n">
-        <v>35117.61902828511</v>
+        <v>1833.705209309945</v>
       </c>
       <c r="Q36" t="n">
-        <v>1833.705209309945</v>
+        <v>9590.902962237811</v>
       </c>
       <c r="R36" t="n">
-        <v>5662.064147239482</v>
+        <v>3901.806567078914</v>
       </c>
       <c r="S36" t="n">
-        <v>2210.764253599018</v>
+        <v>358.6056133755224</v>
       </c>
       <c r="T36" t="n">
-        <v>205.4969283102192</v>
+        <v>1356.997377074558</v>
       </c>
       <c r="U36" t="n">
-        <v>715.3971338613376</v>
+        <v>67.35835868646937</v>
       </c>
       <c r="V36" t="n">
-        <v>37.94448410921316</v>
+        <v>5258.808144648288</v>
       </c>
       <c r="W36" t="n">
-        <v>2926.161387460355</v>
+        <v>425.9657930727623</v>
       </c>
       <c r="X36" t="n">
-        <v>243.4414124194323</v>
+        <v>573.4903777895795</v>
       </c>
       <c r="Y36" t="n">
-        <v>351.0533400097487</v>
+        <v>33.2037390457162</v>
       </c>
       <c r="Z36" t="n">
-        <v>19.43435483886093</v>
+        <v>408.7839779161421</v>
       </c>
       <c r="AA36" t="n">
-        <v>259.0517947753864</v>
+        <v>67.82945457959539</v>
       </c>
       <c r="AB36" t="n">
-        <v>39.20947817237275</v>
+        <v>59125.04434994439</v>
       </c>
       <c r="AC36" t="n">
-        <v>38192.62227978678</v>
+        <v>1970.830561053452</v>
       </c>
       <c r="AD36" t="n">
-        <v>1970.830561053452</v>
+        <v>11946.82279678598</v>
       </c>
       <c r="AE36" t="n">
-        <v>7298.019930418553</v>
+        <v>4824.88162930056</v>
       </c>
       <c r="AF36" t="n">
-        <v>2821.959150250019</v>
+        <v>428.0131649501726</v>
       </c>
       <c r="AG36" t="n">
-        <v>254.4593599785715</v>
+        <v>1262.403231856526</v>
       </c>
       <c r="AH36" t="n">
-        <v>716.4387073607802</v>
+        <v>66.46717334008039</v>
       </c>
       <c r="AI36" t="n">
-        <v>37.98783429623531</v>
+        <v>6087.282922307174</v>
       </c>
       <c r="AJ36" t="n">
-        <v>3538.397857610799</v>
+        <v>494.4771090526958</v>
       </c>
       <c r="AK36" t="n">
-        <v>292.4471942748067</v>
+        <v>670.632949751824</v>
       </c>
       <c r="AL36" t="n">
-        <v>428.3442779896317</v>
+        <v>32.88637707256363</v>
       </c>
       <c r="AM36" t="n">
-        <v>19.98668589977348</v>
+        <v>470.4722671261952</v>
       </c>
       <c r="AN36" t="n">
-        <v>313.4583332043238</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>53.56927376522539</v>
+        <v>87.42504575853968</v>
       </c>
     </row>
     <row r="37">
@@ -5059,85 +4949,82 @@
         <v>164.2603618259883</v>
       </c>
       <c r="O37" t="n">
-        <v>360.5841470581374</v>
+        <v>52243.89601302784</v>
       </c>
       <c r="P37" t="n">
-        <v>34731.28827549898</v>
+        <v>1741.463354917779</v>
       </c>
       <c r="Q37" t="n">
-        <v>1741.463354917779</v>
+        <v>8872.280825952901</v>
       </c>
       <c r="R37" t="n">
-        <v>5673.824508881678</v>
+        <v>3900.282598035951</v>
       </c>
       <c r="S37" t="n">
-        <v>2317.011833191199</v>
+        <v>361.1104903496897</v>
       </c>
       <c r="T37" t="n">
-        <v>219.0240951321056</v>
+        <v>1602.212496045722</v>
       </c>
       <c r="U37" t="n">
-        <v>888.8764176642864</v>
+        <v>77.04631017063778</v>
       </c>
       <c r="V37" t="n">
-        <v>45.23982755555437</v>
+        <v>5502.49207044124</v>
       </c>
       <c r="W37" t="n">
-        <v>3205.888250855484</v>
+        <v>438.1628717477652</v>
       </c>
       <c r="X37" t="n">
-        <v>264.2639226876599</v>
+        <v>555.0860434369104</v>
       </c>
       <c r="Y37" t="n">
-        <v>357.1767940597378</v>
+        <v>30.06297997445281</v>
       </c>
       <c r="Z37" t="n">
-        <v>18.92303014845594</v>
+        <v>375.7237133990071</v>
       </c>
       <c r="AA37" t="n">
-        <v>251.4290733109781</v>
+        <v>61.8425375887801</v>
       </c>
       <c r="AB37" t="n">
-        <v>38.62929390285961</v>
+        <v>56674.4421228398</v>
       </c>
       <c r="AC37" t="n">
-        <v>37737.31658323124</v>
+        <v>1889.146658215353</v>
       </c>
       <c r="AD37" t="n">
-        <v>1889.146658215353</v>
+        <v>11298.12554905002</v>
       </c>
       <c r="AE37" t="n">
-        <v>7312.694100226841</v>
+        <v>4675.832478597713</v>
       </c>
       <c r="AF37" t="n">
-        <v>2937.015153590517</v>
+        <v>429.7007884175641</v>
       </c>
       <c r="AG37" t="n">
-        <v>268.4282301927138</v>
+        <v>1362.191915571118</v>
       </c>
       <c r="AH37" t="n">
-        <v>845.6880846186361</v>
+        <v>68.95130291624308</v>
       </c>
       <c r="AI37" t="n">
-        <v>42.99231057928435</v>
+        <v>6038.025308068392</v>
       </c>
       <c r="AJ37" t="n">
-        <v>3782.703238209153</v>
+        <v>498.6616421803785</v>
       </c>
       <c r="AK37" t="n">
-        <v>311.4205407719982</v>
+        <v>651.8003798456899</v>
       </c>
       <c r="AL37" t="n">
-        <v>436.8909676644103</v>
+        <v>37.73503140940029</v>
       </c>
       <c r="AM37" t="n">
-        <v>21.98868594048105</v>
+        <v>464.1060308425938</v>
       </c>
       <c r="AN37" t="n">
-        <v>318.5086832614425</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>53.88723342368305</v>
+        <v>87.94684536388962</v>
       </c>
     </row>
     <row r="38">
@@ -5184,85 +5071,82 @@
         <v>158.7664883463899</v>
       </c>
       <c r="O38" t="n">
-        <v>379.8957335187971</v>
+        <v>56420.3511838788</v>
       </c>
       <c r="P38" t="n">
-        <v>35003.12938851428</v>
+        <v>1880.678327935581</v>
       </c>
       <c r="Q38" t="n">
-        <v>1880.678327935581</v>
+        <v>9778.23162429309</v>
       </c>
       <c r="R38" t="n">
-        <v>5764.085635559883</v>
+        <v>4081.941647592804</v>
       </c>
       <c r="S38" t="n">
-        <v>2306.735997689903</v>
+        <v>369.6013480732282</v>
       </c>
       <c r="T38" t="n">
-        <v>214.0044291734918</v>
+        <v>1543.195865395011</v>
       </c>
       <c r="U38" t="n">
-        <v>847.7132954505183</v>
+        <v>70.44478925183306</v>
       </c>
       <c r="V38" t="n">
-        <v>41.64112406929935</v>
+        <v>5625.139777111055</v>
       </c>
       <c r="W38" t="n">
-        <v>3154.449293140421</v>
+        <v>440.0502058730812</v>
       </c>
       <c r="X38" t="n">
-        <v>255.6455532427911</v>
+        <v>590.2074306477537</v>
       </c>
       <c r="Y38" t="n">
-        <v>360.928975663068</v>
+        <v>35.04667397551553</v>
       </c>
       <c r="Z38" t="n">
-        <v>20.05363207168498</v>
+        <v>393.3555936809798</v>
       </c>
       <c r="AA38" t="n">
-        <v>246.8955183723932</v>
+        <v>67.53674589150241</v>
       </c>
       <c r="AB38" t="n">
-        <v>39.81274667129084</v>
+        <v>60163.97115487675</v>
       </c>
       <c r="AC38" t="n">
-        <v>37964.08445532997</v>
+        <v>2005.465332978759</v>
       </c>
       <c r="AD38" t="n">
-        <v>2005.465332978759</v>
+        <v>12233.88409977758</v>
       </c>
       <c r="AE38" t="n">
-        <v>7435.032306283036</v>
+        <v>4953.300685684609</v>
       </c>
       <c r="AF38" t="n">
-        <v>2937.624531700029</v>
+        <v>442.1046177148913</v>
       </c>
       <c r="AG38" t="n">
-        <v>266.1925913603109</v>
+        <v>1451.949149268024</v>
       </c>
       <c r="AH38" t="n">
-        <v>824.707285954529</v>
+        <v>67.59875309916366</v>
       </c>
       <c r="AI38" t="n">
-        <v>40.43534078767951</v>
+        <v>6405.248946086068</v>
       </c>
       <c r="AJ38" t="n">
-        <v>3762.331817654558</v>
+        <v>509.7044374825192</v>
       </c>
       <c r="AK38" t="n">
-        <v>306.6279321479904</v>
+        <v>661.5795885500283</v>
       </c>
       <c r="AL38" t="n">
-        <v>424.6912676309764</v>
+        <v>35.70756315127025</v>
       </c>
       <c r="AM38" t="n">
-        <v>21.56441216935172</v>
+        <v>482.4955555899145</v>
       </c>
       <c r="AN38" t="n">
-        <v>313.5522905769708</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>53.31233580110775</v>
+        <v>87.58017853875245</v>
       </c>
     </row>
     <row r="39">
@@ -5309,85 +5193,82 @@
         <v>159.9267866180027</v>
       </c>
       <c r="O39" t="n">
-        <v>378.8180379494611</v>
+        <v>54913.01622937286</v>
       </c>
       <c r="P39" t="n">
-        <v>36272.00264438395</v>
+        <v>1830.434703734382</v>
       </c>
       <c r="Q39" t="n">
-        <v>1830.434703734382</v>
+        <v>9484.467242485802</v>
       </c>
       <c r="R39" t="n">
-        <v>5951.96251447669</v>
+        <v>3957.673748616924</v>
       </c>
       <c r="S39" t="n">
-        <v>2324.887894026716</v>
+        <v>364.7938685255652</v>
       </c>
       <c r="T39" t="n">
-        <v>221.1101637801561</v>
+        <v>1429.630627812968</v>
       </c>
       <c r="U39" t="n">
-        <v>842.7120688907428</v>
+        <v>69.49299154308514</v>
       </c>
       <c r="V39" t="n">
-        <v>41.87284203807275</v>
+        <v>5387.296422769266</v>
       </c>
       <c r="W39" t="n">
-        <v>3167.599962917459</v>
+        <v>434.2890432486316</v>
       </c>
       <c r="X39" t="n">
-        <v>262.9830058182289</v>
+        <v>574.1156263156253</v>
       </c>
       <c r="Y39" t="n">
-        <v>373.2961253070955</v>
+        <v>35.59190848989849</v>
       </c>
       <c r="Z39" t="n">
-        <v>21.47375261508716</v>
+        <v>396.3753132842312</v>
       </c>
       <c r="AA39" t="n">
-        <v>265.3185030029752</v>
+        <v>62.88218728850347</v>
       </c>
       <c r="AB39" t="n">
-        <v>38.72796028574496</v>
+        <v>58889.4570461317</v>
       </c>
       <c r="AC39" t="n">
-        <v>39150.98006905459</v>
+        <v>1962.974551847224</v>
       </c>
       <c r="AD39" t="n">
-        <v>1962.974551847224</v>
+        <v>11731.66818798347</v>
       </c>
       <c r="AE39" t="n">
-        <v>7486.295454870728</v>
+        <v>4676.896503283049</v>
       </c>
       <c r="AF39" t="n">
-        <v>2944.882746361508</v>
+        <v>425.1625986342098</v>
       </c>
       <c r="AG39" t="n">
-        <v>269.8718543387325</v>
+        <v>1261.099461132837</v>
       </c>
       <c r="AH39" t="n">
-        <v>767.8521801591262</v>
+        <v>63.6336222494778</v>
       </c>
       <c r="AI39" t="n">
-        <v>40.81146994072766</v>
+        <v>5937.998137325596</v>
       </c>
       <c r="AJ39" t="n">
-        <v>3712.734926520634</v>
+        <v>488.7920194044458</v>
       </c>
       <c r="AK39" t="n">
-        <v>310.6833242794602</v>
+        <v>668.1872145622581</v>
       </c>
       <c r="AL39" t="n">
-        <v>449.8924014346309</v>
+        <v>29.28238916041149</v>
       </c>
       <c r="AM39" t="n">
-        <v>18.9391383675949</v>
+        <v>487.5316733368701</v>
       </c>
       <c r="AN39" t="n">
-        <v>328.3119318430861</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>54.83295839623987</v>
+        <v>86.92382556973163</v>
       </c>
     </row>
   </sheetData>
